--- a/PricerAndQutation/OptionPricer_v2_20180509.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180509.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -23,194 +23,194 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="275">
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>利率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>交易对手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
     <t>中信寰球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中友信德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>杭州昊广</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>执行价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>入场价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>交易日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>到期日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>天数(y)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>波动率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>成本价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>报价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">delta </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>vega</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>delta差分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中金买入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中金卖出</t>
   </si>
   <si>
     <t>中金卖出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RB1805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C/P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>加点(bp)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>加点(绝对值)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>交易方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中金卖出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>期权标的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>报价(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Recap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>深万智富</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中金公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>期权定价_VAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>期权定价_SF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c</t>
   </si>
   <si>
     <t>RB1805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中信寰球</t>
   </si>
   <si>
     <t>WM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中投期货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>敲出价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">敲出价(adj) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>敲出收益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Carry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cuo</t>
@@ -424,166 +424,166 @@
   </si>
   <si>
     <t>成交回报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中文版 Temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>English Version Temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>成交回报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>交易日：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Trade Date:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>买方：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>XXXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Seller:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>卖方:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Buyer:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>权利金总额（元）：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Option Type:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>结构:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>看跌期权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Commodity:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>到期日:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Contract Month:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>期初价格:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Quantity(t):</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>行权价:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Strike:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>权利金（每吨）：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Price:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>标的:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>rb1801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Premium:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>交易量（吨）：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Expiration Date:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>结算货币:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>人民币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Currency:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Real Trades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中金买入</t>
   </si>
   <si>
     <t>1st virsion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cuo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pdo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>v1:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>v2:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1 add combo model; 2 modify markup algos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>期权报价表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RB1805</t>
@@ -593,42 +593,42 @@
   </si>
   <si>
     <t>Example</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Example</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>行权价1:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>行权价2:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中文版 Temp 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>English Version Temp 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Strike 1:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Strike 2:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>厦门利青弘</t>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Temp1</t>
@@ -647,188 +647,188 @@
   </si>
   <si>
     <t>ZKHM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ZHGJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>权利金总额（元）：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>起始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>标的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>期权价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>起始日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>行权价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>rb1810</t>
   </si>
   <si>
     <t>中金公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>华泰长城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>成交回报1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>成交回报2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>看跌期权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>看涨期权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>i1805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LME20180122-CICC-MRJH-NI-SWP-4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>rb1810</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>天物国际</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>rb1805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>看涨期权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>权利金（每吨）：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>标的:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>交易量（吨）：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>last_trd_date</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>i1809</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>al1808</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中金公司</t>
   </si>
   <si>
     <t>RMB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>成交回报(平仓交易)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RMB</t>
   </si>
   <si>
     <t xml:space="preserve">    看跌期权 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ni1809</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>al1807</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>rb1810</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>i1809</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ru1809</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>sc1809</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ru</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>sc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中信寰球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>看跌期权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>al1807</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">成交回报(平仓) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>江铜国贸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>p1809</t>
@@ -838,19 +838,19 @@
   </si>
   <si>
     <t>RB1810</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中金公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>看涨期权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RMB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cu1807</t>
@@ -860,35 +860,35 @@
   </si>
   <si>
     <t>sc1809</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ta809</t>
   </si>
   <si>
     <t>ta809</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>zc809</t>
   </si>
   <si>
     <t>zc809</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pp1809</t>
   </si>
   <si>
     <t>pp1809</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>v1809</t>
   </si>
   <si>
     <t>cu1807</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>i1809</t>
@@ -898,61 +898,125 @@
   </si>
   <si>
     <t>j1809</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>成交回报 l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>成交回报 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ru1809</t>
   </si>
   <si>
     <t>ru1901</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cf809</t>
   </si>
   <si>
     <t>cf809</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ap901</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>m1809</t>
   </si>
   <si>
     <t>m1809</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>m1901</t>
   </si>
   <si>
-    <t>m1901</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sc1809</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3000|3280</t>
   </si>
   <si>
     <t>2950|3350</t>
+  </si>
+  <si>
+    <t>al1808</t>
+  </si>
+  <si>
+    <t>al1808</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zn1808</t>
+  </si>
+  <si>
+    <t>zn1808</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu1808</t>
+  </si>
+  <si>
+    <t>cu1808</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1809</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cf809</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cf901</t>
+  </si>
+  <si>
+    <t>cf901</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>al</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m 1m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m 2m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cicc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ht</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -968,12 +1032,20 @@
     <numFmt numFmtId="181" formatCode="0.000000000000000_ "/>
     <numFmt numFmtId="182" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1238,6 +1310,14 @@
       <name val="Inherit"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1496,150 +1576,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="5" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="6" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="12" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="12" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="12" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="12" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="12" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="12" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="12" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="12" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="12" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="12" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="15" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="13" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="13" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="13" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="13" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="13" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="13" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="13" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="13" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="13" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="13" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="16" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1648,144 +1679,204 @@
     <xf numFmtId="0" fontId="18" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="13" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="13" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="13" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="181" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="13" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="13" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="12" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="12" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="12" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="179" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="12" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="12" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="百分比 2" xfId="4"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="3"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1805,7 +1896,7 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>11665</v>
+        <v>11680</v>
         <stp/>
         <stp>ru1809</stp>
         <stp>LastPrice</stp>
@@ -1820,24 +1911,15 @@
         <tr r="P38" s="1"/>
       </tp>
       <tp>
-        <v>3149</v>
-        <stp/>
-        <stp>m1901</stp>
-        <stp>LastPrice</stp>
-        <tr r="P52" s="1"/>
-        <tr r="P54" s="1"/>
-        <tr r="P53" s="1"/>
-      </tp>
-      <tp>
-        <v>469.90000000000003</v>
+        <v>471.2</v>
         <stp/>
         <stp>sc1809</stp>
         <stp>LastPrice</stp>
-        <tr r="P56" s="1"/>
-        <tr r="P57" s="1"/>
+        <tr r="P60" s="1"/>
+        <tr r="P61" s="1"/>
       </tp>
       <tp>
-        <v>14780</v>
+        <v>14735</v>
         <stp/>
         <stp>al1808</stp>
         <stp>LastPrice</stp>
@@ -1845,39 +1927,36 @@
         <tr r="P8" s="1"/>
       </tp>
       <tp>
-        <v>472</v>
+        <v>482.5</v>
         <stp/>
         <stp>i1809</stp>
         <stp>LastPrice</stp>
         <tr r="P11" s="9"/>
+        <tr r="P29" s="1"/>
         <tr r="P28" s="1"/>
-        <tr r="P29" s="1"/>
       </tp>
       <tp>
-        <v>8867</v>
+        <v>8887</v>
         <stp/>
         <stp>ap901</stp>
         <stp>LastPrice</stp>
+        <tr r="P47" s="1"/>
         <tr r="P44" s="1"/>
         <tr r="P45" s="1"/>
         <tr r="P46" s="1"/>
-        <tr r="P47" s="1"/>
       </tp>
       <tp>
-        <v>3105</v>
+        <v>3074</v>
         <stp/>
         <stp>m1809</stp>
         <stp>LastPrice</stp>
+        <tr r="P18" s="9"/>
         <tr r="P21" s="9"/>
-        <tr r="P18" s="9"/>
-        <tr r="P49" s="1"/>
-        <tr r="P50" s="1"/>
-        <tr r="P51" s="1"/>
         <tr r="P29" s="9"/>
         <tr r="P26" s="9"/>
       </tp>
       <tp>
-        <v>3647</v>
+        <v>3675</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
@@ -1887,7 +1966,7 @@
         <tr r="P21" s="1"/>
       </tp>
       <tp>
-        <v>4010</v>
+        <v>3900</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
@@ -2187,10 +2266,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:V85"/>
+  <dimension ref="B1:V104"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71:R85"/>
+    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W96" sqref="W96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -5596,7 +5675,7 @@
         <v>43261</v>
       </c>
       <c r="F74" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G74" s="92">
         <v>31</v>
@@ -5737,7 +5816,7 @@
         <v>43322</v>
       </c>
       <c r="F77" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G77" s="92">
         <v>92</v>
@@ -5916,7 +5995,7 @@
         <v>43261</v>
       </c>
       <c r="F82" s="92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G82" s="92">
         <v>31</v>
@@ -6057,7 +6136,7 @@
         <v>43322</v>
       </c>
       <c r="F85" s="92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G85" s="92">
         <v>92</v>
@@ -6086,11 +6165,772 @@
       <c r="Q85" s="92"/>
       <c r="R85" s="92"/>
     </row>
+    <row r="86" spans="2:18">
+      <c r="B86" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G86" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J86" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K86" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L86" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M86" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N86" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O86" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P86" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q86" s="33"/>
+      <c r="R86" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18">
+      <c r="B87" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C87" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="D87" s="93">
+        <v>43231</v>
+      </c>
+      <c r="E87" s="93">
+        <v>43259</v>
+      </c>
+      <c r="F87" s="92">
+        <v>3300</v>
+      </c>
+      <c r="G87" s="92">
+        <v>28</v>
+      </c>
+      <c r="H87" s="92">
+        <v>7.6712328767123292E-2</v>
+      </c>
+      <c r="I87" s="92">
+        <v>0</v>
+      </c>
+      <c r="J87" s="92">
+        <v>0.22</v>
+      </c>
+      <c r="K87" s="92">
+        <v>4.4506546422274198</v>
+      </c>
+      <c r="L87" s="92"/>
+      <c r="M87" s="92">
+        <v>0</v>
+      </c>
+      <c r="N87" s="99">
+        <v>4.4506546422274198</v>
+      </c>
+      <c r="O87" s="92">
+        <v>3647</v>
+      </c>
+      <c r="P87" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q87" s="92">
+        <v>1</v>
+      </c>
+      <c r="R87" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18">
+      <c r="B88" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C88" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="D88" s="93">
+        <v>43231</v>
+      </c>
+      <c r="E88" s="93">
+        <v>43259</v>
+      </c>
+      <c r="F88" s="92">
+        <v>3350</v>
+      </c>
+      <c r="G88" s="92">
+        <v>28</v>
+      </c>
+      <c r="H88" s="92">
+        <v>7.6712328767123292E-2</v>
+      </c>
+      <c r="I88" s="92">
+        <v>0</v>
+      </c>
+      <c r="J88" s="92">
+        <v>0.2225</v>
+      </c>
+      <c r="K88" s="92">
+        <v>8.2664551688841357</v>
+      </c>
+      <c r="L88" s="92"/>
+      <c r="M88" s="92">
+        <v>0</v>
+      </c>
+      <c r="N88" s="99">
+        <v>8.2664551688841357</v>
+      </c>
+      <c r="O88" s="92">
+        <v>3647</v>
+      </c>
+      <c r="P88" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q88" s="92">
+        <v>1</v>
+      </c>
+      <c r="R88" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="2:18">
+      <c r="B89" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="D89" s="93">
+        <v>43231</v>
+      </c>
+      <c r="E89" s="93">
+        <v>43259</v>
+      </c>
+      <c r="F89" s="92">
+        <v>3400</v>
+      </c>
+      <c r="G89" s="92">
+        <v>28</v>
+      </c>
+      <c r="H89" s="92">
+        <v>7.6712328767123292E-2</v>
+      </c>
+      <c r="I89" s="92">
+        <v>0</v>
+      </c>
+      <c r="J89" s="92">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K89" s="92">
+        <v>14.292243567169294</v>
+      </c>
+      <c r="L89" s="92"/>
+      <c r="M89" s="92">
+        <v>0</v>
+      </c>
+      <c r="N89" s="99">
+        <v>14.292243567169294</v>
+      </c>
+      <c r="O89" s="92">
+        <v>3647</v>
+      </c>
+      <c r="P89" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q89" s="92">
+        <v>1</v>
+      </c>
+      <c r="R89" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18">
+      <c r="B90" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G90" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J90" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K90" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L90" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M90" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N90" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O90" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P90" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q90" s="33"/>
+      <c r="R90" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="2:18">
+      <c r="B91" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="D91" s="93">
+        <v>43231</v>
+      </c>
+      <c r="E91" s="93">
+        <v>43262</v>
+      </c>
+      <c r="F91" s="92">
+        <v>100</v>
+      </c>
+      <c r="G91" s="92">
+        <v>31</v>
+      </c>
+      <c r="H91" s="92">
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="I91" s="92">
+        <v>0</v>
+      </c>
+      <c r="J91" s="92">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="K91" s="92">
+        <v>1.9149122565538121</v>
+      </c>
+      <c r="L91" s="92"/>
+      <c r="M91" s="92">
+        <v>0</v>
+      </c>
+      <c r="N91" s="99">
+        <v>1.9149122565538121</v>
+      </c>
+      <c r="O91" s="92">
+        <v>100</v>
+      </c>
+      <c r="P91" s="92"/>
+      <c r="Q91" s="92">
+        <v>1</v>
+      </c>
+      <c r="R91" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="2:18">
+      <c r="B92" s="92"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="93"/>
+      <c r="E92" s="93"/>
+      <c r="F92" s="92"/>
+      <c r="G92" s="92"/>
+      <c r="H92" s="92"/>
+      <c r="I92" s="92"/>
+      <c r="J92" s="92"/>
+      <c r="K92" s="92"/>
+      <c r="L92" s="92"/>
+      <c r="M92" s="92"/>
+      <c r="N92" s="99"/>
+      <c r="O92" s="92"/>
+      <c r="P92" s="92"/>
+      <c r="Q92" s="92"/>
+      <c r="R92" s="92"/>
+    </row>
+    <row r="93" spans="2:18">
+      <c r="B93" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C93" s="92" t="s">
+        <v>259</v>
+      </c>
+      <c r="D93" s="93">
+        <v>43231</v>
+      </c>
+      <c r="E93" s="93">
+        <v>43262</v>
+      </c>
+      <c r="F93" s="92">
+        <v>100</v>
+      </c>
+      <c r="G93" s="92">
+        <v>31</v>
+      </c>
+      <c r="H93" s="92">
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="I93" s="92">
+        <v>0</v>
+      </c>
+      <c r="J93" s="92">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="K93" s="92">
+        <v>1.8859038982856404</v>
+      </c>
+      <c r="L93" s="92"/>
+      <c r="M93" s="92">
+        <v>0</v>
+      </c>
+      <c r="N93" s="99">
+        <v>1.8859038982856404</v>
+      </c>
+      <c r="O93" s="92">
+        <v>100</v>
+      </c>
+      <c r="P93" s="92"/>
+      <c r="Q93" s="92">
+        <v>1</v>
+      </c>
+      <c r="R93" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="2:18">
+      <c r="B94" s="92"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="93"/>
+      <c r="E94" s="93"/>
+      <c r="F94" s="92"/>
+      <c r="G94" s="92"/>
+      <c r="H94" s="92"/>
+      <c r="I94" s="92"/>
+      <c r="J94" s="92"/>
+      <c r="K94" s="92"/>
+      <c r="L94" s="92"/>
+      <c r="M94" s="92"/>
+      <c r="N94" s="99"/>
+      <c r="O94" s="92"/>
+      <c r="P94" s="92"/>
+      <c r="Q94" s="92"/>
+      <c r="R94" s="92"/>
+    </row>
+    <row r="95" spans="2:18">
+      <c r="B95" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C95" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="D95" s="93">
+        <v>43231</v>
+      </c>
+      <c r="E95" s="93">
+        <v>43262</v>
+      </c>
+      <c r="F95" s="92">
+        <v>100</v>
+      </c>
+      <c r="G95" s="92">
+        <v>31</v>
+      </c>
+      <c r="H95" s="92">
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="I95" s="92">
+        <v>0</v>
+      </c>
+      <c r="J95" s="92">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="K95" s="92">
+        <v>1.595807188203942</v>
+      </c>
+      <c r="L95" s="92"/>
+      <c r="M95" s="92">
+        <v>0</v>
+      </c>
+      <c r="N95" s="99">
+        <v>1.595807188203942</v>
+      </c>
+      <c r="O95" s="92">
+        <v>100</v>
+      </c>
+      <c r="P95" s="92"/>
+      <c r="Q95" s="92">
+        <v>1</v>
+      </c>
+      <c r="R95" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="2:18">
+      <c r="B96" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="D96" s="93">
+        <v>43231</v>
+      </c>
+      <c r="E96" s="93">
+        <v>43262</v>
+      </c>
+      <c r="F96" s="92">
+        <v>100</v>
+      </c>
+      <c r="G96" s="92">
+        <v>31</v>
+      </c>
+      <c r="H96" s="92">
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="I96" s="92">
+        <v>0</v>
+      </c>
+      <c r="J96" s="92">
+        <v>0.1875</v>
+      </c>
+      <c r="K96" s="92">
+        <v>-2.1759755861492565</v>
+      </c>
+      <c r="L96" s="92"/>
+      <c r="M96" s="92">
+        <v>0</v>
+      </c>
+      <c r="N96" s="99">
+        <v>2.1759755861492565</v>
+      </c>
+      <c r="O96" s="92">
+        <v>100</v>
+      </c>
+      <c r="P96" s="92"/>
+      <c r="Q96" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R96" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="2:18">
+      <c r="B97" s="92"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="93"/>
+      <c r="E97" s="93"/>
+      <c r="F97" s="92"/>
+      <c r="G97" s="92"/>
+      <c r="H97" s="92"/>
+      <c r="I97" s="92"/>
+      <c r="J97" s="92"/>
+      <c r="K97" s="92"/>
+      <c r="L97" s="92"/>
+      <c r="M97" s="92"/>
+      <c r="N97" s="99"/>
+      <c r="O97" s="92"/>
+      <c r="P97" s="92"/>
+      <c r="Q97" s="92"/>
+      <c r="R97" s="92"/>
+    </row>
+    <row r="98" spans="2:18">
+      <c r="B98" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C98" s="92" t="s">
+        <v>250</v>
+      </c>
+      <c r="D98" s="93">
+        <v>43231</v>
+      </c>
+      <c r="E98" s="93">
+        <v>43251</v>
+      </c>
+      <c r="F98" s="92">
+        <v>100</v>
+      </c>
+      <c r="G98" s="92">
+        <v>20</v>
+      </c>
+      <c r="H98" s="92">
+        <v>5.4794520547945202E-2</v>
+      </c>
+      <c r="I98" s="92">
+        <v>0</v>
+      </c>
+      <c r="J98" s="92">
+        <v>0.18</v>
+      </c>
+      <c r="K98" s="92">
+        <v>1.6789705266844948</v>
+      </c>
+      <c r="L98" s="92"/>
+      <c r="M98" s="92">
+        <v>0</v>
+      </c>
+      <c r="N98" s="99">
+        <v>1.6789705266844948</v>
+      </c>
+      <c r="O98" s="92">
+        <v>100</v>
+      </c>
+      <c r="P98" s="92"/>
+      <c r="Q98" s="92">
+        <v>1</v>
+      </c>
+      <c r="R98" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="2:18">
+      <c r="B99" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C99" s="92" t="s">
+        <v>250</v>
+      </c>
+      <c r="D99" s="93">
+        <v>43231</v>
+      </c>
+      <c r="E99" s="93">
+        <v>43281</v>
+      </c>
+      <c r="F99" s="92">
+        <v>100</v>
+      </c>
+      <c r="G99" s="92">
+        <v>50</v>
+      </c>
+      <c r="H99" s="92">
+        <v>0.13698630136986301</v>
+      </c>
+      <c r="I99" s="92">
+        <v>0</v>
+      </c>
+      <c r="J99" s="92">
+        <v>0.24</v>
+      </c>
+      <c r="K99" s="92">
+        <v>-3.5328668252653728</v>
+      </c>
+      <c r="L99" s="92"/>
+      <c r="M99" s="92">
+        <v>0</v>
+      </c>
+      <c r="N99" s="99">
+        <v>3.5328668252653728</v>
+      </c>
+      <c r="O99" s="92">
+        <v>100</v>
+      </c>
+      <c r="P99" s="92"/>
+      <c r="Q99" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R99" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="2:18">
+      <c r="B100" s="92"/>
+      <c r="C100" s="92"/>
+      <c r="D100" s="93"/>
+      <c r="E100" s="93"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="92"/>
+      <c r="H100" s="92"/>
+      <c r="I100" s="92"/>
+      <c r="J100" s="92"/>
+      <c r="K100" s="92"/>
+      <c r="L100" s="92"/>
+      <c r="M100" s="92"/>
+      <c r="N100" s="99"/>
+      <c r="O100" s="92"/>
+      <c r="P100" s="92"/>
+      <c r="Q100" s="92"/>
+      <c r="R100" s="92"/>
+    </row>
+    <row r="101" spans="2:18">
+      <c r="B101" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C101" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="D101" s="93">
+        <v>43231</v>
+      </c>
+      <c r="E101" s="93">
+        <v>43262</v>
+      </c>
+      <c r="F101" s="92">
+        <v>100</v>
+      </c>
+      <c r="G101" s="92">
+        <v>31</v>
+      </c>
+      <c r="H101" s="92">
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="I101" s="92">
+        <v>0</v>
+      </c>
+      <c r="J101" s="92">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K101" s="92">
+        <v>0.98653976806129151</v>
+      </c>
+      <c r="L101" s="92"/>
+      <c r="M101" s="92">
+        <v>0</v>
+      </c>
+      <c r="N101" s="99">
+        <v>0.98653976806129151</v>
+      </c>
+      <c r="O101" s="92">
+        <v>100</v>
+      </c>
+      <c r="P101" s="92"/>
+      <c r="Q101" s="92">
+        <v>1</v>
+      </c>
+      <c r="R101" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="2:18">
+      <c r="B102" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C102" s="92" t="s">
+        <v>265</v>
+      </c>
+      <c r="D102" s="93">
+        <v>43231</v>
+      </c>
+      <c r="E102" s="93">
+        <v>43262</v>
+      </c>
+      <c r="F102" s="92">
+        <v>100</v>
+      </c>
+      <c r="G102" s="92">
+        <v>31</v>
+      </c>
+      <c r="H102" s="92">
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="I102" s="92">
+        <v>0</v>
+      </c>
+      <c r="J102" s="92">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="K102" s="92">
+        <v>-1.6828385996297825</v>
+      </c>
+      <c r="L102" s="92"/>
+      <c r="M102" s="92">
+        <v>0</v>
+      </c>
+      <c r="N102" s="99">
+        <v>1.6828385996297825</v>
+      </c>
+      <c r="O102" s="92">
+        <v>100</v>
+      </c>
+      <c r="P102" s="92"/>
+      <c r="Q102" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R102" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="2:18">
+      <c r="B103" s="92"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="93"/>
+      <c r="E103" s="93"/>
+      <c r="F103" s="92"/>
+      <c r="G103" s="92"/>
+      <c r="H103" s="92"/>
+      <c r="I103" s="92"/>
+      <c r="J103" s="92"/>
+      <c r="K103" s="92"/>
+      <c r="L103" s="92"/>
+      <c r="M103" s="92"/>
+      <c r="N103" s="99"/>
+      <c r="O103" s="92"/>
+      <c r="P103" s="92"/>
+      <c r="Q103" s="92"/>
+      <c r="R103" s="92"/>
+    </row>
+    <row r="104" spans="2:18">
+      <c r="B104" s="92"/>
+      <c r="C104" s="92"/>
+      <c r="D104" s="93"/>
+      <c r="E104" s="93"/>
+      <c r="F104" s="92"/>
+      <c r="G104" s="92"/>
+      <c r="H104" s="92"/>
+      <c r="I104" s="92"/>
+      <c r="J104" s="92"/>
+      <c r="K104" s="92"/>
+      <c r="L104" s="92"/>
+      <c r="M104" s="92"/>
+      <c r="N104" s="99"/>
+      <c r="O104" s="92"/>
+      <c r="P104" s="92"/>
+      <c r="Q104" s="92"/>
+      <c r="R104" s="92"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6259,18 +7099,18 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>4010</v>
+        <v>3900</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43260</v>
+        <v>43261</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -6284,30 +7124,30 @@
       </c>
       <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>266.33163722627114</v>
+        <v>189.76341985366889</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
       <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.6367123287671235</v>
+        <v>2.5643835616438357</v>
       </c>
       <c r="R8" s="24">
         <f>O8+Q8</f>
-        <v>268.96834955503829</v>
+        <v>192.32780341531273</v>
       </c>
       <c r="S8" s="26">
         <f>R8/H8</f>
-        <v>6.7074401385296328E-2</v>
+        <v>4.9314821388541728E-2</v>
       </c>
       <c r="T8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.75048878427423915</v>
+        <v>0.63802132026467007</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>3.6409583626611948</v>
+        <v>4.1851263761293467</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -6339,11 +7179,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43260</v>
+        <v>43261</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -6409,11 +7249,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43260</v>
+        <v>43261</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
@@ -7097,7 +7937,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -7148,71 +7988,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="11.25" thickBot="1">
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="139"/>
+      <c r="C1" s="143"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" thickTop="1"/>
     <row r="3" spans="2:20" ht="11.25" thickBot="1">
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="G3" s="144" t="s">
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="G3" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="L3" s="140" t="s">
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="L3" s="142" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="Q3" s="144" t="s">
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="Q3" s="141" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="144"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
     </row>
     <row r="4" spans="2:20" ht="12" thickTop="1" thickBot="1">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="G4" s="141" t="s">
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="G4" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="L4" s="141" t="s">
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="L4" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="Q4" s="141" t="s">
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="Q4" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="141"/>
-      <c r="S4" s="141"/>
-      <c r="T4" s="141"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickTop="1">
       <c r="B5" s="138" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="138"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="143"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145"/>
       <c r="G5" s="138" t="s">
         <v>123</v>
       </c>
@@ -7237,252 +8077,252 @@
         <v>124</v>
       </c>
       <c r="C6" s="138"/>
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="137"/>
+      <c r="E6" s="140"/>
       <c r="G6" s="138" t="s">
         <v>126</v>
       </c>
       <c r="H6" s="138"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="137"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="140"/>
       <c r="L6" s="138" t="s">
         <v>124</v>
       </c>
       <c r="M6" s="138"/>
-      <c r="N6" s="136" t="s">
+      <c r="N6" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="137"/>
+      <c r="O6" s="140"/>
       <c r="Q6" s="138" t="s">
         <v>126</v>
       </c>
       <c r="R6" s="138"/>
-      <c r="S6" s="136"/>
-      <c r="T6" s="137"/>
+      <c r="S6" s="139"/>
+      <c r="T6" s="140"/>
     </row>
     <row r="7" spans="2:20" ht="2.25" customHeight="1">
       <c r="B7" s="138" t="s">
         <v>127</v>
       </c>
       <c r="C7" s="138"/>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="137"/>
+      <c r="E7" s="140"/>
       <c r="G7" s="138" t="s">
         <v>128</v>
       </c>
       <c r="H7" s="138"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="137"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="140"/>
       <c r="L7" s="138" t="s">
         <v>127</v>
       </c>
       <c r="M7" s="138"/>
-      <c r="N7" s="136" t="s">
+      <c r="N7" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="137"/>
+      <c r="O7" s="140"/>
       <c r="Q7" s="138" t="s">
         <v>128</v>
       </c>
       <c r="R7" s="138"/>
-      <c r="S7" s="136"/>
-      <c r="T7" s="137"/>
+      <c r="S7" s="139"/>
+      <c r="T7" s="140"/>
     </row>
     <row r="8" spans="2:20" hidden="1">
       <c r="B8" s="138" t="s">
         <v>129</v>
       </c>
       <c r="C8" s="138"/>
-      <c r="D8" s="136">
+      <c r="D8" s="139">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="137"/>
+      <c r="E8" s="140"/>
       <c r="G8" s="138" t="s">
         <v>130</v>
       </c>
       <c r="H8" s="138"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="137"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="140"/>
       <c r="L8" s="138" t="s">
         <v>129</v>
       </c>
       <c r="M8" s="138"/>
-      <c r="N8" s="136">
+      <c r="N8" s="139">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="137"/>
+      <c r="O8" s="140"/>
       <c r="Q8" s="138" t="s">
         <v>130</v>
       </c>
       <c r="R8" s="138"/>
-      <c r="S8" s="136"/>
-      <c r="T8" s="137"/>
+      <c r="S8" s="139"/>
+      <c r="T8" s="140"/>
     </row>
     <row r="9" spans="2:20" hidden="1">
       <c r="B9" s="138" t="s">
         <v>131</v>
       </c>
       <c r="C9" s="138"/>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="139" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="137"/>
+      <c r="E9" s="140"/>
       <c r="G9" s="138" t="s">
         <v>133</v>
       </c>
       <c r="H9" s="138"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="137"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="140"/>
       <c r="L9" s="138" t="s">
         <v>131</v>
       </c>
       <c r="M9" s="138"/>
-      <c r="N9" s="136" t="s">
+      <c r="N9" s="139" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="137"/>
+      <c r="O9" s="140"/>
       <c r="Q9" s="138" t="s">
         <v>133</v>
       </c>
       <c r="R9" s="138"/>
-      <c r="S9" s="136"/>
-      <c r="T9" s="137"/>
+      <c r="S9" s="139"/>
+      <c r="T9" s="140"/>
     </row>
     <row r="10" spans="2:20" hidden="1">
       <c r="B10" s="138" t="s">
         <v>134</v>
       </c>
       <c r="C10" s="138"/>
-      <c r="D10" s="136">
+      <c r="D10" s="139">
         <v>43084</v>
       </c>
-      <c r="E10" s="137"/>
+      <c r="E10" s="140"/>
       <c r="G10" s="105" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="105"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="137"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="140"/>
       <c r="L10" s="138" t="s">
         <v>134</v>
       </c>
       <c r="M10" s="138"/>
-      <c r="N10" s="136">
+      <c r="N10" s="139">
         <v>43084</v>
       </c>
-      <c r="O10" s="137"/>
+      <c r="O10" s="140"/>
       <c r="Q10" s="105" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="105"/>
-      <c r="S10" s="136"/>
-      <c r="T10" s="137"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="140"/>
     </row>
     <row r="11" spans="2:20" hidden="1">
       <c r="B11" s="138" t="s">
         <v>136</v>
       </c>
       <c r="C11" s="138"/>
-      <c r="D11" s="136">
+      <c r="D11" s="139">
         <v>3935</v>
       </c>
-      <c r="E11" s="137"/>
+      <c r="E11" s="140"/>
       <c r="G11" s="138" t="s">
         <v>137</v>
       </c>
       <c r="H11" s="138"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="137"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="140"/>
       <c r="L11" s="138" t="s">
         <v>136</v>
       </c>
       <c r="M11" s="138"/>
-      <c r="N11" s="136">
+      <c r="N11" s="139">
         <v>3935</v>
       </c>
-      <c r="O11" s="137"/>
+      <c r="O11" s="140"/>
       <c r="Q11" s="138" t="s">
         <v>137</v>
       </c>
       <c r="R11" s="138"/>
-      <c r="S11" s="136"/>
-      <c r="T11" s="137"/>
+      <c r="S11" s="139"/>
+      <c r="T11" s="140"/>
     </row>
     <row r="12" spans="2:20" hidden="1">
       <c r="B12" s="138" t="s">
         <v>138</v>
       </c>
       <c r="C12" s="138"/>
-      <c r="D12" s="136">
+      <c r="D12" s="139">
         <v>3800</v>
       </c>
-      <c r="E12" s="137"/>
+      <c r="E12" s="140"/>
       <c r="G12" s="138" t="s">
         <v>139</v>
       </c>
       <c r="H12" s="138"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="137"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="140"/>
       <c r="L12" s="138" t="s">
         <v>163</v>
       </c>
       <c r="M12" s="138"/>
-      <c r="N12" s="136">
+      <c r="N12" s="139">
         <v>3800</v>
       </c>
-      <c r="O12" s="137"/>
+      <c r="O12" s="140"/>
       <c r="Q12" s="138" t="s">
         <v>167</v>
       </c>
       <c r="R12" s="138"/>
-      <c r="S12" s="136"/>
-      <c r="T12" s="137"/>
+      <c r="S12" s="139"/>
+      <c r="T12" s="140"/>
     </row>
     <row r="13" spans="2:20" hidden="1">
       <c r="B13" s="138" t="s">
         <v>140</v>
       </c>
       <c r="C13" s="138"/>
-      <c r="D13" s="136">
+      <c r="D13" s="139">
         <v>61</v>
       </c>
-      <c r="E13" s="137"/>
+      <c r="E13" s="140"/>
       <c r="G13" s="138" t="s">
         <v>141</v>
       </c>
       <c r="H13" s="138"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="137"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="140"/>
       <c r="L13" s="138" t="s">
         <v>164</v>
       </c>
       <c r="M13" s="138"/>
-      <c r="N13" s="136">
+      <c r="N13" s="139">
         <v>3800</v>
       </c>
-      <c r="O13" s="137"/>
+      <c r="O13" s="140"/>
       <c r="Q13" s="138" t="s">
         <v>168</v>
       </c>
       <c r="R13" s="138"/>
-      <c r="S13" s="136"/>
-      <c r="T13" s="137"/>
+      <c r="S13" s="139"/>
+      <c r="T13" s="140"/>
     </row>
     <row r="14" spans="2:20" hidden="1">
       <c r="B14" s="138" t="s">
         <v>142</v>
       </c>
       <c r="C14" s="138"/>
-      <c r="D14" s="136" t="s">
+      <c r="D14" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="137"/>
+      <c r="E14" s="140"/>
       <c r="G14" s="138" t="s">
         <v>144</v>
       </c>
@@ -7493,40 +8333,40 @@
         <v>140</v>
       </c>
       <c r="M14" s="138"/>
-      <c r="N14" s="136">
+      <c r="N14" s="139">
         <v>61</v>
       </c>
-      <c r="O14" s="137"/>
+      <c r="O14" s="140"/>
       <c r="Q14" s="138" t="s">
         <v>141</v>
       </c>
       <c r="R14" s="138"/>
-      <c r="S14" s="136"/>
-      <c r="T14" s="137"/>
+      <c r="S14" s="139"/>
+      <c r="T14" s="140"/>
     </row>
     <row r="15" spans="2:20" hidden="1">
       <c r="B15" s="138" t="s">
         <v>145</v>
       </c>
       <c r="C15" s="138"/>
-      <c r="D15" s="136">
+      <c r="D15" s="139">
         <v>5000</v>
       </c>
-      <c r="E15" s="137"/>
+      <c r="E15" s="140"/>
       <c r="G15" s="138" t="s">
         <v>146</v>
       </c>
       <c r="H15" s="138"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="137"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="140"/>
       <c r="L15" s="138" t="s">
         <v>142</v>
       </c>
       <c r="M15" s="138"/>
-      <c r="N15" s="136" t="s">
+      <c r="N15" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="137"/>
+      <c r="O15" s="140"/>
       <c r="Q15" s="138" t="s">
         <v>144</v>
       </c>
@@ -7535,50 +8375,50 @@
       <c r="T15" s="107"/>
     </row>
     <row r="16" spans="2:20" ht="11.25" hidden="1" thickBot="1">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="133"/>
-      <c r="D16" s="134" t="s">
+      <c r="C16" s="135"/>
+      <c r="D16" s="136" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="135"/>
-      <c r="G16" s="133" t="s">
+      <c r="E16" s="137"/>
+      <c r="G16" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="133"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="137"/>
       <c r="L16" s="138" t="s">
         <v>145</v>
       </c>
       <c r="M16" s="138"/>
-      <c r="N16" s="136">
+      <c r="N16" s="139">
         <v>5000</v>
       </c>
-      <c r="O16" s="137"/>
+      <c r="O16" s="140"/>
       <c r="Q16" s="138" t="s">
         <v>146</v>
       </c>
       <c r="R16" s="138"/>
-      <c r="S16" s="136"/>
-      <c r="T16" s="137"/>
+      <c r="S16" s="139"/>
+      <c r="T16" s="140"/>
     </row>
     <row r="17" spans="2:25" ht="12" hidden="1" thickTop="1" thickBot="1">
-      <c r="L17" s="133" t="s">
+      <c r="L17" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="133"/>
-      <c r="N17" s="134" t="s">
+      <c r="M17" s="135"/>
+      <c r="N17" s="136" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="135"/>
-      <c r="Q17" s="133" t="s">
+      <c r="O17" s="137"/>
+      <c r="Q17" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="133"/>
-      <c r="S17" s="134"/>
-      <c r="T17" s="135"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="136"/>
+      <c r="T17" s="137"/>
     </row>
     <row r="19" spans="2:25">
       <c r="B19" s="108" t="s">
@@ -7608,36 +8448,36 @@
       <c r="Y21" s="109"/>
     </row>
     <row r="22" spans="2:25" ht="12.75" thickTop="1" thickBot="1">
-      <c r="B22" s="131" t="s">
+      <c r="B22" s="132" t="s">
         <v>221</v>
       </c>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="G22" s="131" t="s">
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="G22" s="132" t="s">
         <v>189</v>
       </c>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="L22" s="141" t="s">
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="L22" s="134" t="s">
         <v>189</v>
       </c>
-      <c r="M22" s="141"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="Q22" s="131" t="s">
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="Q22" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="R22" s="131"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="131"/>
-      <c r="V22" s="141" t="s">
+      <c r="R22" s="132"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="132"/>
+      <c r="V22" s="134" t="s">
         <v>189</v>
       </c>
-      <c r="W22" s="141"/>
-      <c r="X22" s="141"/>
-      <c r="Y22" s="141"/>
+      <c r="W22" s="134"/>
+      <c r="X22" s="134"/>
+      <c r="Y22" s="134"/>
     </row>
     <row r="23" spans="2:25" ht="12" thickTop="1">
       <c r="B23" s="124" t="s">
@@ -7647,43 +8487,43 @@
       <c r="D23" s="130">
         <v>43209</v>
       </c>
-      <c r="E23" s="132"/>
+      <c r="E23" s="133"/>
       <c r="G23" s="124" t="s">
         <v>122</v>
       </c>
       <c r="H23" s="124"/>
       <c r="I23" s="130">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
-      </c>
-      <c r="J23" s="132"/>
+        <v>43231</v>
+      </c>
+      <c r="J23" s="133"/>
       <c r="L23" s="124" t="s">
         <v>122</v>
       </c>
       <c r="M23" s="124"/>
       <c r="N23" s="130">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
-      </c>
-      <c r="O23" s="132"/>
+        <v>43231</v>
+      </c>
+      <c r="O23" s="133"/>
       <c r="Q23" s="124" t="s">
         <v>122</v>
       </c>
       <c r="R23" s="124"/>
       <c r="S23" s="130">
         <f ca="1">TODAY()-1</f>
-        <v>43229</v>
-      </c>
-      <c r="T23" s="132"/>
+        <v>43230</v>
+      </c>
+      <c r="T23" s="133"/>
       <c r="V23" s="124" t="s">
         <v>122</v>
       </c>
       <c r="W23" s="124"/>
       <c r="X23" s="130">
         <f ca="1">TODAY()-1</f>
-        <v>43229</v>
-      </c>
-      <c r="Y23" s="132"/>
+        <v>43230</v>
+      </c>
+      <c r="Y23" s="133"/>
     </row>
     <row r="24" spans="2:25" ht="11.25">
       <c r="B24" s="124" t="s">
@@ -8158,30 +8998,30 @@
     </row>
     <row r="35" spans="2:25" ht="11.25" thickTop="1"/>
     <row r="36" spans="2:25" ht="12" thickBot="1">
-      <c r="B36" s="131" t="s">
+      <c r="B36" s="132" t="s">
         <v>243</v>
       </c>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
-      <c r="G36" s="131" t="s">
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="G36" s="132" t="s">
         <v>244</v>
       </c>
-      <c r="H36" s="131"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="131"/>
-      <c r="L36" s="131" t="s">
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="132"/>
+      <c r="L36" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="M36" s="131"/>
-      <c r="N36" s="131"/>
-      <c r="O36" s="131"/>
-      <c r="Q36" s="131" t="s">
+      <c r="M36" s="132"/>
+      <c r="N36" s="132"/>
+      <c r="O36" s="132"/>
+      <c r="Q36" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="R36" s="131"/>
-      <c r="S36" s="131"/>
-      <c r="T36" s="131"/>
+      <c r="R36" s="132"/>
+      <c r="S36" s="132"/>
+      <c r="T36" s="132"/>
     </row>
     <row r="37" spans="2:25" ht="12" thickTop="1">
       <c r="B37" s="124" t="s">
@@ -8191,7 +9031,7 @@
       <c r="D37" s="130">
         <v>43229</v>
       </c>
-      <c r="E37" s="132"/>
+      <c r="E37" s="133"/>
       <c r="G37" s="124" t="s">
         <v>122</v>
       </c>
@@ -8199,7 +9039,7 @@
       <c r="I37" s="130">
         <v>43229</v>
       </c>
-      <c r="J37" s="132"/>
+      <c r="J37" s="133"/>
       <c r="L37" s="124" t="s">
         <v>122</v>
       </c>
@@ -8207,7 +9047,7 @@
       <c r="N37" s="130">
         <v>43214</v>
       </c>
-      <c r="O37" s="132"/>
+      <c r="O37" s="133"/>
       <c r="Q37" s="124" t="s">
         <v>122</v>
       </c>
@@ -8215,7 +9055,7 @@
       <c r="S37" s="130">
         <v>43209</v>
       </c>
-      <c r="T37" s="132"/>
+      <c r="T37" s="133"/>
     </row>
     <row r="38" spans="2:25" ht="11.25">
       <c r="B38" s="124" t="s">
@@ -8413,7 +9253,7 @@
       <c r="L43" s="124" t="s">
         <v>136</v>
       </c>
-      <c r="M43" s="145"/>
+      <c r="M43" s="131"/>
       <c r="N43" s="125">
         <v>14535</v>
       </c>
@@ -8602,12 +9442,12 @@
       <c r="T48" s="129"/>
     </row>
     <row r="49" spans="2:5" ht="12.75" thickTop="1" thickBot="1">
-      <c r="B49" s="131" t="s">
+      <c r="B49" s="132" t="s">
         <v>244</v>
       </c>
-      <c r="C49" s="131"/>
-      <c r="D49" s="131"/>
-      <c r="E49" s="131"/>
+      <c r="C49" s="132"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="132"/>
     </row>
     <row r="50" spans="2:5" ht="12" thickTop="1">
       <c r="B50" s="124" t="s">
@@ -8617,7 +9457,7 @@
       <c r="D50" s="130">
         <v>43229</v>
       </c>
-      <c r="E50" s="132"/>
+      <c r="E50" s="133"/>
     </row>
     <row r="51" spans="2:5" ht="11.25">
       <c r="B51" s="124" t="s">
@@ -8734,154 +9574,185 @@
     <row r="62" spans="2:5" ht="11.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="351">
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -8906,187 +9777,156 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9095,10 +9935,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Z59"/>
+  <dimension ref="A1:Z79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M64" sqref="M64"/>
+    <sheetView topLeftCell="C34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -9110,7 +9950,8 @@
     <col min="5" max="6" width="9" style="6"/>
     <col min="7" max="7" width="9.75" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="6" customWidth="1"/>
-    <col min="9" max="10" width="22.625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8.125" style="6" customWidth="1"/>
     <col min="11" max="11" width="7.25" style="6" customWidth="1"/>
     <col min="12" max="12" width="15.75" style="6" customWidth="1"/>
     <col min="13" max="13" width="7.75" style="6" customWidth="1"/>
@@ -9263,11 +10104,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" ref="E8:E25" ca="1" si="0">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8" ca="1" si="1">E8+H8</f>
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="G8" s="10">
         <v>11500</v>
@@ -9287,7 +10128,7 @@
       </c>
       <c r="L8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-3.7741835734938718</v>
+        <v>-4.1113982895623309</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="13">
@@ -9296,11 +10137,11 @@
       </c>
       <c r="O8" s="13">
         <f>IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>3.7741835734938718</v>
+        <v>4.1113982895623309</v>
       </c>
       <c r="P8" s="11">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>14780</v>
+        <v>14735</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>85</v>
@@ -9314,15 +10155,15 @@
       </c>
       <c r="T8" s="14">
         <f t="shared" ref="T8" si="4">O8/P8</f>
-        <v>2.5535748129187224E-4</v>
+        <v>2.7902261890480699E-4</v>
       </c>
       <c r="U8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>7.1966424378899774E-3</v>
+        <v>7.7980693504287046E-3</v>
       </c>
       <c r="V8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-1.4814922827585448</v>
+        <v>-1.5844923196067953</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="10.5" customHeight="1">
@@ -9338,11 +10179,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9" ca="1" si="5">E9+H9</f>
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="G9" s="10">
         <v>11500</v>
@@ -9362,7 +10203,7 @@
       </c>
       <c r="L9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>-3.7741835734938718</v>
+        <v>-4.1113982895623309</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="13">
@@ -9371,11 +10212,11 @@
       </c>
       <c r="O9" s="13">
         <f>IF(L9&lt;=0,ABS(L9)+N9,L9-N9)</f>
-        <v>3.7741835734938718</v>
+        <v>4.1113982895623309</v>
       </c>
       <c r="P9" s="11">
         <f>RTD("wdf.rtq",,D9,"LastPrice")</f>
-        <v>14780</v>
+        <v>14735</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>85</v>
@@ -9389,15 +10230,15 @@
       </c>
       <c r="T9" s="14">
         <f t="shared" ref="T9" si="8">O9/P9</f>
-        <v>2.5535748129187224E-4</v>
+        <v>2.7902261890480699E-4</v>
       </c>
       <c r="U9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>7.1966424378899774E-3</v>
+        <v>7.7980693504287046E-3</v>
       </c>
       <c r="V9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>-1.4814922827585448</v>
+        <v>-1.5844923196067953</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -9419,11 +10260,11 @@
       </c>
       <c r="E11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" ref="F11" ca="1" si="9">E11+H11</f>
-        <v>43231</v>
+        <v>43232</v>
       </c>
       <c r="G11" s="11">
         <v>3700</v>
@@ -9505,11 +10346,11 @@
       </c>
       <c r="E13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ref="F13" ca="1" si="13">E13+H13</f>
-        <v>43261</v>
+        <v>43262</v>
       </c>
       <c r="G13" s="11">
         <f>P13</f>
@@ -9591,11 +10432,11 @@
       </c>
       <c r="E14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14" ca="1" si="17">E14+H14</f>
-        <v>43290</v>
+        <v>43291</v>
       </c>
       <c r="G14" s="11">
         <f t="shared" ref="G14:G23" si="18">P14</f>
@@ -9702,11 +10543,11 @@
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16" ca="1" si="22">E16+H16</f>
-        <v>43261</v>
+        <v>43262</v>
       </c>
       <c r="G16" s="11">
         <f t="shared" si="18"/>
@@ -9813,11 +10654,11 @@
       </c>
       <c r="E18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18:F21" ca="1" si="26">E18+H18</f>
-        <v>43261</v>
+        <v>43262</v>
       </c>
       <c r="G18" s="11">
         <f t="shared" si="18"/>
@@ -9899,21 +10740,21 @@
       </c>
       <c r="E19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>43260</v>
+        <v>43259</v>
       </c>
       <c r="G19" s="11">
         <v>3300</v>
       </c>
       <c r="H19" s="10">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I19" s="12">
         <f>H19/365</f>
-        <v>8.2191780821917804E-2</v>
+        <v>7.6712328767123292E-2</v>
       </c>
       <c r="J19" s="12">
         <v>0</v>
@@ -9923,7 +10764,7 @@
       </c>
       <c r="L19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>5.2549524990850216</v>
+        <v>3.2891403931074308</v>
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="13">
@@ -9932,11 +10773,11 @@
       </c>
       <c r="O19" s="13">
         <f>IF(L19&lt;=0,ABS(L19)+N19,L19-N19)</f>
-        <v>5.2549524990850216</v>
+        <v>3.2891403931074308</v>
       </c>
       <c r="P19" s="11">
         <f>RTD("wdf.rtq",,D19,"LastPrice")</f>
-        <v>3647</v>
+        <v>3675</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>85</v>
@@ -9950,15 +10791,15 @@
       </c>
       <c r="T19" s="14">
         <f t="shared" si="29"/>
-        <v>1.4408973126089997E-3</v>
+        <v>8.9500418860066148E-4</v>
       </c>
       <c r="U19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-5.2879534976568721E-2</v>
+        <v>-3.6125605238623848E-2</v>
       </c>
       <c r="V19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>1.1265980289774262</v>
+        <v>0.80706152356573568</v>
       </c>
       <c r="W19" s="114">
         <v>37.799999999999997</v>
@@ -9969,7 +10810,7 @@
       </c>
       <c r="Y19" s="6">
         <f>500*U19</f>
-        <v>-26.43976748828436</v>
+        <v>-18.062802619311924</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="10.5" customHeight="1">
@@ -9985,21 +10826,21 @@
       </c>
       <c r="E20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>43260</v>
+        <v>43259</v>
       </c>
       <c r="G20" s="11">
         <v>3350</v>
       </c>
       <c r="H20" s="10">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I20" s="12">
         <f>H20/365</f>
-        <v>8.2191780821917804E-2</v>
+        <v>7.6712328767123292E-2</v>
       </c>
       <c r="J20" s="12">
         <v>0</v>
@@ -10009,7 +10850,7 @@
       </c>
       <c r="L20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>9.4678459573137843</v>
+        <v>6.2891241680023597</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="13">
@@ -10018,11 +10859,11 @@
       </c>
       <c r="O20" s="13">
         <f>IF(L20&lt;=0,ABS(L20)+N20,L20-N20)</f>
-        <v>9.4678459573137843</v>
+        <v>6.2891241680023597</v>
       </c>
       <c r="P20" s="11">
         <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
-        <v>3647</v>
+        <v>3675</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>85</v>
@@ -10036,15 +10877,15 @@
       </c>
       <c r="T20" s="14">
         <f t="shared" si="29"/>
-        <v>2.596064150620725E-3</v>
+        <v>1.7113263042183291E-3</v>
       </c>
       <c r="U20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-8.6213040063398694E-2</v>
+        <v>-6.250338702074032E-2</v>
       </c>
       <c r="V20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>1.6424561102886912</v>
+        <v>1.2507337836484567</v>
       </c>
       <c r="W20" s="114">
         <v>37.799999999999997</v>
@@ -10055,7 +10896,7 @@
       </c>
       <c r="Y20" s="6">
         <f>500*U20</f>
-        <v>-43.106520031699347</v>
+        <v>-31.25169351037016</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="10.5" customHeight="1">
@@ -10071,21 +10912,21 @@
       </c>
       <c r="E21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>43260</v>
+        <v>43259</v>
       </c>
       <c r="G21" s="11">
         <v>3400</v>
       </c>
       <c r="H21" s="10">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I21" s="12">
         <f>H21/365</f>
-        <v>8.2191780821917804E-2</v>
+        <v>7.6712328767123292E-2</v>
       </c>
       <c r="J21" s="12">
         <v>0</v>
@@ -10095,7 +10936,7 @@
       </c>
       <c r="L21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>15.953891945157579</v>
+        <v>11.167553349654611</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="13">
@@ -10104,11 +10945,11 @@
       </c>
       <c r="O21" s="13">
         <f>IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>15.953891945157579</v>
+        <v>11.167553349654611</v>
       </c>
       <c r="P21" s="11">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>3647</v>
+        <v>3675</v>
       </c>
       <c r="Q21" s="10" t="s">
         <v>85</v>
@@ -10122,15 +10963,15 @@
       </c>
       <c r="T21" s="14">
         <f t="shared" si="29"/>
-        <v>4.3745247998786888E-3</v>
+        <v>3.0387900271169007E-3</v>
       </c>
       <c r="U21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.13126052650704878</v>
+        <v>-0.10025372679933753</v>
       </c>
       <c r="V21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>2.2239330969731554</v>
+        <v>1.7875772350293744</v>
       </c>
       <c r="W21" s="114">
         <v>37.799999999999997</v>
@@ -10141,7 +10982,7 @@
       </c>
       <c r="Y21" s="6">
         <f>500*U21</f>
-        <v>-65.63026325352439</v>
+        <v>-50.126863399668764</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="10.5" customHeight="1">
@@ -10182,11 +11023,11 @@
       </c>
       <c r="E23" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" ref="F23" ca="1" si="30">E23+H23</f>
-        <v>43261</v>
+        <v>43262</v>
       </c>
       <c r="G23" s="11">
         <f t="shared" si="18"/>
@@ -10292,11 +11133,11 @@
       </c>
       <c r="E25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" ref="F25" ca="1" si="34">E25+H25</f>
-        <v>43260</v>
+        <v>43261</v>
       </c>
       <c r="G25" s="11">
         <v>49000</v>
@@ -10412,11 +11253,11 @@
       <c r="S27" s="10"/>
       <c r="T27" s="14">
         <f>T28+T29</f>
-        <v>0.15337761866869004</v>
+        <v>0.14709899996612175</v>
       </c>
       <c r="U27" s="12">
         <f>T27/2</f>
-        <v>7.6688809334345021E-2</v>
+        <v>7.3549499983060873E-2</v>
       </c>
       <c r="V27" s="13"/>
     </row>
@@ -10433,11 +11274,11 @@
       </c>
       <c r="E28" s="8">
         <f t="shared" ref="E28:E36" ca="1" si="38">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F28" s="8">
         <f t="shared" ref="F28:F37" ca="1" si="39">E28+H28</f>
-        <v>43328</v>
+        <v>43329</v>
       </c>
       <c r="G28" s="11">
         <v>500</v>
@@ -10457,7 +11298,7 @@
       </c>
       <c r="L28" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
-        <v>-50.122141410806364</v>
+        <v>-44.190773369949056</v>
       </c>
       <c r="M28" s="15"/>
       <c r="N28" s="13">
@@ -10466,11 +11307,11 @@
       </c>
       <c r="O28" s="13">
         <f>IF(L28&lt;=0,ABS(L28)+N28,L28-N28)</f>
-        <v>50.122141410806364</v>
+        <v>44.190773369949056</v>
       </c>
       <c r="P28" s="11">
         <f>RTD("wdf.rtq",,D28,"LastPrice")</f>
-        <v>472</v>
+        <v>482.5</v>
       </c>
       <c r="Q28" s="10" t="s">
         <v>85</v>
@@ -10484,15 +11325,15 @@
       </c>
       <c r="T28" s="14">
         <f t="shared" ref="T28:T37" si="42">O28/P28</f>
-        <v>0.10619097756526773</v>
+        <v>9.1587095067251934E-2</v>
       </c>
       <c r="U28" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
-        <v>0.58894359978580724</v>
+        <v>0.54084813702957035</v>
       </c>
       <c r="V28" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
-        <v>-0.94445261172566575</v>
+        <v>-0.98607728330543409</v>
       </c>
       <c r="W28" s="114">
         <v>37.799999999999997</v>
@@ -10503,11 +11344,11 @@
       </c>
       <c r="Y28" s="6">
         <f>500*U28</f>
-        <v>294.47179989290362</v>
+        <v>270.42406851478518</v>
       </c>
       <c r="Z28" s="119">
         <f>U28+U29</f>
-        <v>0.18324267064571131</v>
+        <v>8.7051745136079717E-2</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="10.5" customHeight="1">
@@ -10523,11 +11364,11 @@
       </c>
       <c r="E29" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F29" s="8">
         <f t="shared" ca="1" si="39"/>
-        <v>43328</v>
+        <v>43329</v>
       </c>
       <c r="G29" s="11">
         <v>500</v>
@@ -10547,7 +11388,7 @@
       </c>
       <c r="L29" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-22.272094600815336</v>
+        <v>-26.784494113704682</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="13">
@@ -10556,11 +11397,11 @@
       </c>
       <c r="O29" s="13">
         <f>IF(L29&lt;=0,ABS(L29)+N29,L29-N29)</f>
-        <v>22.272094600815336</v>
+        <v>26.784494113704682</v>
       </c>
       <c r="P29" s="11">
         <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
-        <v>472</v>
+        <v>482.5</v>
       </c>
       <c r="Q29" s="10" t="s">
         <v>39</v>
@@ -10574,15 +11415,15 @@
       </c>
       <c r="T29" s="14">
         <f t="shared" si="42"/>
-        <v>4.7186641103422321E-2</v>
+        <v>5.5511904898869806E-2</v>
       </c>
       <c r="U29" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-0.40570092914009592</v>
+        <v>-0.45379639189349064</v>
       </c>
       <c r="V29" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-0.94445261172567996</v>
+        <v>-0.98607728330541988</v>
       </c>
       <c r="W29" s="114">
         <v>37.799999999999997</v>
@@ -10593,7 +11434,7 @@
       </c>
       <c r="Y29" s="6">
         <f>500*U29</f>
-        <v>-202.85046457004796</v>
+        <v>-226.89819594674532</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="10.5" customHeight="1">
@@ -10635,11 +11476,11 @@
       </c>
       <c r="E31" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" ca="1" si="39"/>
-        <v>43260</v>
+        <v>43261</v>
       </c>
       <c r="G31" s="11">
         <f t="shared" ref="G31:G34" si="43">P31</f>
@@ -10721,11 +11562,11 @@
       </c>
       <c r="E32" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" ca="1" si="39"/>
-        <v>43260</v>
+        <v>43261</v>
       </c>
       <c r="G32" s="11">
         <f t="shared" si="43"/>
@@ -10833,11 +11674,11 @@
       </c>
       <c r="E34" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" ca="1" si="39"/>
-        <v>43260</v>
+        <v>43261</v>
       </c>
       <c r="G34" s="11">
         <f t="shared" si="43"/>
@@ -10945,11 +11786,11 @@
       </c>
       <c r="E36" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" ca="1" si="39"/>
-        <v>43260</v>
+        <v>43261</v>
       </c>
       <c r="G36" s="11">
         <v>12105</v>
@@ -10969,22 +11810,22 @@
       </c>
       <c r="L36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>-224.4776908368508</v>
+        <v>-229.74852624395226</v>
       </c>
       <c r="M36" s="15">
         <v>70</v>
       </c>
       <c r="N36" s="13">
         <f t="shared" si="40"/>
-        <v>6.7113698630136982</v>
+        <v>6.72</v>
       </c>
       <c r="O36" s="13">
         <f>IF(L36&lt;=0,ABS(L36)+N36,L36-N36)</f>
-        <v>231.18906069986448</v>
+        <v>236.46852624395225</v>
       </c>
       <c r="P36" s="11">
         <f>RTD("wdf.rtq",,D36,"LastPrice")</f>
-        <v>11665</v>
+        <v>11680</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>39</v>
@@ -10998,15 +11839,15 @@
       </c>
       <c r="T36" s="14">
         <f t="shared" si="42"/>
-        <v>1.9819036493773208E-2</v>
+        <v>2.0245593000338378E-2</v>
       </c>
       <c r="U36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>-0.34862286765928729</v>
+        <v>-0.35415924012340838</v>
       </c>
       <c r="V36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>-12.355161259838724</v>
+        <v>-12.441568996116985</v>
       </c>
       <c r="W36" s="114">
         <v>37.799999999999997</v>
@@ -11017,7 +11858,7 @@
       </c>
       <c r="Y36" s="6">
         <f>500*U36</f>
-        <v>-174.31143382964365</v>
+        <v>-177.07962006170419</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="10.5" customHeight="1">
@@ -11033,11 +11874,11 @@
       </c>
       <c r="E37" s="8">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F37" s="8">
         <f t="shared" ca="1" si="39"/>
-        <v>43320</v>
+        <v>43321</v>
       </c>
       <c r="G37" s="11">
         <v>12105</v>
@@ -11057,22 +11898,22 @@
       </c>
       <c r="L37" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
-        <v>-527.4893185988085</v>
+        <v>-534.0073328930539</v>
       </c>
       <c r="M37" s="15">
         <v>70</v>
       </c>
       <c r="N37" s="13">
         <f t="shared" si="40"/>
-        <v>20.134109589041095</v>
+        <v>20.16</v>
       </c>
       <c r="O37" s="13">
         <f>IF(L37&lt;=0,ABS(L37)+N37,L37-N37)</f>
-        <v>547.62342818784964</v>
+        <v>554.16733289305387</v>
       </c>
       <c r="P37" s="11">
         <f>RTD("wdf.rtq",,D37,"LastPrice")</f>
-        <v>11665</v>
+        <v>11680</v>
       </c>
       <c r="Q37" s="10" t="s">
         <v>39</v>
@@ -11086,15 +11927,15 @@
       </c>
       <c r="T37" s="14">
         <f t="shared" si="42"/>
-        <v>4.694585753860691E-2</v>
+        <v>4.7445833295638173E-2</v>
       </c>
       <c r="U37" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
-        <v>-0.43289819222991355</v>
+        <v>-0.43617040514618566</v>
       </c>
       <c r="V37" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
-        <v>-22.688479789856046</v>
+        <v>-22.747948045309386</v>
       </c>
       <c r="W37" s="114">
         <v>37.799999999999997</v>
@@ -11105,7 +11946,7 @@
       </c>
       <c r="Y37" s="6">
         <f>500*U37</f>
-        <v>-216.44909611495677</v>
+        <v>-218.08520257309283</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="10.5" customHeight="1">
@@ -11121,11 +11962,11 @@
       </c>
       <c r="E38" s="8">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" ref="F38" ca="1" si="44">E38+H38</f>
-        <v>43330</v>
+        <v>43331</v>
       </c>
       <c r="G38" s="11">
         <v>12105</v>
@@ -11209,11 +12050,11 @@
       </c>
       <c r="E40" s="8">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" ref="F40:F41" ca="1" si="48">E40+H40</f>
-        <v>43262</v>
+        <v>43263</v>
       </c>
       <c r="G40" s="11">
         <v>15800</v>
@@ -11298,11 +12139,11 @@
       </c>
       <c r="E41" s="8">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F41" s="8">
         <f t="shared" ca="1" si="48"/>
-        <v>43262</v>
+        <v>43263</v>
       </c>
       <c r="G41" s="11">
         <v>15900</v>
@@ -11387,11 +12228,11 @@
       </c>
       <c r="E42" s="8">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F42" s="8">
         <f t="shared" ref="F42" ca="1" si="52">E42+H42</f>
-        <v>43262</v>
+        <v>43263</v>
       </c>
       <c r="G42" s="11">
         <v>15660</v>
@@ -11476,11 +12317,11 @@
       </c>
       <c r="E44" s="8">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F44" s="8">
         <f t="shared" ref="F44:F45" ca="1" si="56">E44+H44</f>
-        <v>43322</v>
+        <v>43323</v>
       </c>
       <c r="G44" s="11">
         <v>9000</v>
@@ -11500,7 +12341,7 @@
       </c>
       <c r="L44" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q44,$P44,$G44,$I44,$C$3,$J44,$K44,$C$4)*R44</f>
-        <v>-470.01562013764942</v>
+        <v>-479.83785830723173</v>
       </c>
       <c r="M44" s="15"/>
       <c r="N44" s="13">
@@ -11509,11 +12350,11 @@
       </c>
       <c r="O44" s="13">
         <f>IF(L44&lt;=0,ABS(L44)+N44,L44-N44)</f>
-        <v>470.01562013764942</v>
+        <v>479.83785830723173</v>
       </c>
       <c r="P44" s="120">
         <f>RTD("wdf.rtq",,D44,"LastPrice")</f>
-        <v>8867</v>
+        <v>8887</v>
       </c>
       <c r="Q44" s="10" t="s">
         <v>39</v>
@@ -11527,15 +12368,15 @@
       </c>
       <c r="T44" s="14">
         <f t="shared" ref="T44:T45" si="59">O44/P44</f>
-        <v>5.3007287711475067E-2</v>
+        <v>5.3993232621495635E-2</v>
       </c>
       <c r="U44" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q44,$P44,$G44,$I44,$C$3,$J44,$K44,$C$4)*R44</f>
-        <v>-0.48814248889357259</v>
+        <v>-0.49407933654492808</v>
       </c>
       <c r="V44" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q44,$P44,$G44,$I44,$C$3,$J44,$K44,$C$4)*R44</f>
-        <v>-17.665331235879194</v>
+        <v>-17.709457541518304</v>
       </c>
       <c r="W44" s="114">
         <v>37.799999999999997</v>
@@ -11546,11 +12387,11 @@
       </c>
       <c r="Y44" s="6">
         <f>500*U44</f>
-        <v>-244.0712444467863</v>
+        <v>-247.03966827246404</v>
       </c>
       <c r="Z44" s="6">
         <f>1000000/P44/10</f>
-        <v>11.27777151234916</v>
+        <v>11.252391133115788</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="10.5" customHeight="1">
@@ -11566,11 +12407,11 @@
       </c>
       <c r="E45" s="8">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F45" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>43322</v>
+        <v>43323</v>
       </c>
       <c r="G45" s="11">
         <v>10000</v>
@@ -11590,7 +12431,7 @@
       </c>
       <c r="L45" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q45,$P45,$G45,$I45,$C$3,$J45,$K45,$C$4)*R45</f>
-        <v>-169.82819471356947</v>
+        <v>-174.54681539147987</v>
       </c>
       <c r="M45" s="15"/>
       <c r="N45" s="13">
@@ -11599,11 +12440,11 @@
       </c>
       <c r="O45" s="13">
         <f>IF(L45&lt;=0,ABS(L45)+N45,L45-N45)</f>
-        <v>169.82819471356947</v>
+        <v>174.54681539147987</v>
       </c>
       <c r="P45" s="120">
         <f>RTD("wdf.rtq",,D45,"LastPrice")</f>
-        <v>8867</v>
+        <v>8887</v>
       </c>
       <c r="Q45" s="10" t="s">
         <v>39</v>
@@ -11617,15 +12458,15 @@
       </c>
       <c r="T45" s="14">
         <f t="shared" si="59"/>
-        <v>1.9152835763343801E-2</v>
+        <v>1.9640690378246863E-2</v>
       </c>
       <c r="U45" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q45,$P45,$G45,$I45,$C$3,$J45,$K45,$C$4)*R45</f>
-        <v>-0.23363607119790686</v>
+        <v>-0.23823247086056654</v>
       </c>
       <c r="V45" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q45,$P45,$G45,$I45,$C$3,$J45,$K45,$C$4)*R45</f>
-        <v>-13.6015976230658</v>
+        <v>-13.779092428230456</v>
       </c>
       <c r="W45" s="114">
         <v>37.799999999999997</v>
@@ -11636,7 +12477,7 @@
       </c>
       <c r="Y45" s="6">
         <f>500*U45</f>
-        <v>-116.81803559895343</v>
+        <v>-119.11623543028327</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="10.5" customHeight="1">
@@ -11652,11 +12493,11 @@
       </c>
       <c r="E46" s="8">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F46" s="8">
         <f t="shared" ref="F46:F47" ca="1" si="60">E46+H46</f>
-        <v>43413</v>
+        <v>43414</v>
       </c>
       <c r="G46" s="11">
         <v>9000</v>
@@ -11676,7 +12517,7 @@
       </c>
       <c r="L46" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q46,$P46,$G46,$I46,$C$3,$J46,$K46,$C$4)*R46</f>
-        <v>-684.0960675160145</v>
+        <v>-694.3234595713152</v>
       </c>
       <c r="M46" s="15"/>
       <c r="N46" s="13">
@@ -11685,11 +12526,11 @@
       </c>
       <c r="O46" s="13">
         <f>IF(L46&lt;=0,ABS(L46)+N46,L46-N46)</f>
-        <v>684.0960675160145</v>
+        <v>694.3234595713152</v>
       </c>
       <c r="P46" s="120">
         <f>RTD("wdf.rtq",,D46,"LastPrice")</f>
-        <v>8867</v>
+        <v>8887</v>
       </c>
       <c r="Q46" s="10" t="s">
         <v>39</v>
@@ -11703,15 +12544,15 @@
       </c>
       <c r="T46" s="14">
         <f t="shared" ref="T46:T47" si="63">O46/P46</f>
-        <v>7.7150791419421952E-2</v>
+        <v>7.8127991399945446E-2</v>
       </c>
       <c r="U46" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q46,$P46,$G46,$I46,$C$3,$J46,$K46,$C$4)*R46</f>
-        <v>-0.50927592933476262</v>
+        <v>-0.51346139805446001</v>
       </c>
       <c r="V46" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q46,$P46,$G46,$I46,$C$3,$J46,$K46,$C$4)*R46</f>
-        <v>-24.781385598708084</v>
+        <v>-24.826389558721075</v>
       </c>
       <c r="W46" s="114">
         <v>37.799999999999997</v>
@@ -11722,11 +12563,11 @@
       </c>
       <c r="Y46" s="6">
         <f>500*U46</f>
-        <v>-254.63796466738131</v>
+        <v>-256.73069902723</v>
       </c>
       <c r="Z46" s="6">
         <f>638*U46</f>
-        <v>-324.91804291557855</v>
+        <v>-327.58837195874548</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="10.5" customHeight="1">
@@ -11742,11 +12583,11 @@
       </c>
       <c r="E47" s="8">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F47" s="8">
         <f t="shared" ca="1" si="60"/>
-        <v>43413</v>
+        <v>43414</v>
       </c>
       <c r="G47" s="11">
         <v>10000</v>
@@ -11766,7 +12607,7 @@
       </c>
       <c r="L47" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
-        <v>-351.77697204262086</v>
+        <v>-358.20640803819606</v>
       </c>
       <c r="M47" s="15"/>
       <c r="N47" s="13">
@@ -11775,11 +12616,11 @@
       </c>
       <c r="O47" s="13">
         <f>IF(L47&lt;=0,ABS(L47)+N47,L47-N47)</f>
-        <v>351.77697204262086</v>
+        <v>358.20640803819606</v>
       </c>
       <c r="P47" s="120">
         <f>RTD("wdf.rtq",,D47,"LastPrice")</f>
-        <v>8867</v>
+        <v>8887</v>
       </c>
       <c r="Q47" s="10" t="s">
         <v>39</v>
@@ -11793,15 +12634,15 @@
       </c>
       <c r="T47" s="14">
         <f t="shared" si="63"/>
-        <v>3.9672603140027164E-2</v>
+        <v>4.0306786096342528E-2</v>
       </c>
       <c r="U47" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
-        <v>-0.31958367060269666</v>
+        <v>-0.32336154602035094</v>
       </c>
       <c r="V47" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
-        <v>-22.305802100778692</v>
+        <v>-22.464277905988638</v>
       </c>
       <c r="W47" s="114">
         <v>37.799999999999997</v>
@@ -11812,7 +12653,7 @@
       </c>
       <c r="Y47" s="6">
         <f>500*U47</f>
-        <v>-159.79183530134833</v>
+        <v>-161.68077301017547</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="10.5" customHeight="1">
@@ -11824,35 +12665,36 @@
         <v>160</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" ref="E49:E54" ca="1" si="64">TODAY()</f>
-        <v>43230</v>
+        <f t="shared" ref="E49:E58" ca="1" si="64">TODAY()</f>
+        <v>43231</v>
       </c>
       <c r="F49" s="8">
         <f t="shared" ref="F49:F51" ca="1" si="65">E49+H49</f>
-        <v>43322</v>
+        <v>43262</v>
       </c>
       <c r="G49" s="11">
-        <v>2900</v>
+        <f>P49</f>
+        <v>100</v>
       </c>
       <c r="H49" s="10">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I49" s="12">
-        <f t="shared" ref="I49:I54" si="66">H49/365</f>
-        <v>0.25205479452054796</v>
+        <f t="shared" ref="I49:I57" si="66">H49/365</f>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="J49" s="12">
         <v>0</v>
       </c>
       <c r="K49" s="117">
-        <v>0.16300000000000001</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L49" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q49,$P49,$G49,$I49,$C$3,$J49,$K49,$C$4)*R49</f>
-        <v>27.604835466562236</v>
+        <v>1.9149122565538121</v>
       </c>
       <c r="M49" s="15"/>
       <c r="N49" s="13">
@@ -11860,15 +12702,14 @@
         <v>0</v>
       </c>
       <c r="O49" s="13">
-        <f t="shared" ref="O49:O54" si="68">IF(L49&lt;=0,ABS(L49)+N49,L49-N49)</f>
-        <v>27.604835466562236</v>
+        <f t="shared" ref="O49:O57" si="68">IF(L49&lt;=0,ABS(L49)+N49,L49-N49)</f>
+        <v>1.9149122565538121</v>
       </c>
       <c r="P49" s="120">
-        <f>RTD("wdf.rtq",,D49,"LastPrice")</f>
-        <v>3105</v>
+        <v>100</v>
       </c>
       <c r="Q49" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R49" s="10">
         <f t="shared" ref="R49:R51" si="69">IF(S49="中金买入",1,-1)</f>
@@ -11879,26 +12720,26 @@
       </c>
       <c r="T49" s="14">
         <f t="shared" ref="T49:T51" si="70">O49/P49</f>
-        <v>8.8904462050119915E-3</v>
+        <v>1.9149122565538121E-2</v>
       </c>
       <c r="U49" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q49,$P49,$G49,$I49,$C$3,$J49,$K49,$C$4)*R49</f>
-        <v>-0.18967404072327554</v>
+        <v>-0.48957686527622002</v>
       </c>
       <c r="V49" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q49,$P49,$G49,$I49,$C$3,$J49,$K49,$C$4)*R49</f>
-        <v>4.2132937762033293</v>
+        <v>0.11603288645868659</v>
       </c>
       <c r="W49" s="114">
         <v>37.799999999999997</v>
       </c>
       <c r="X49" s="115">
-        <f t="shared" ref="X49:X54" si="71">G49-W49</f>
-        <v>2862.2</v>
+        <f t="shared" ref="X49:X57" si="71">G49-W49</f>
+        <v>62.2</v>
       </c>
       <c r="Y49" s="6">
-        <f t="shared" ref="Y49:Y54" si="72">500*U49</f>
-        <v>-94.837020361637769</v>
+        <f t="shared" ref="Y49:Y57" si="72">500*U49</f>
+        <v>-244.78843263811001</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="10.5" customHeight="1">
@@ -11910,35 +12751,36 @@
         <v>160</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E50" s="8">
         <f t="shared" ca="1" si="64"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F50" s="8">
         <f t="shared" ca="1" si="65"/>
-        <v>43322</v>
+        <v>43262</v>
       </c>
       <c r="G50" s="11">
-        <v>2800</v>
+        <f t="shared" ref="G50:G58" si="73">P50</f>
+        <v>100</v>
       </c>
       <c r="H50" s="10">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I50" s="12">
         <f t="shared" si="66"/>
-        <v>0.25205479452054796</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="J50" s="12">
         <v>0</v>
       </c>
       <c r="K50" s="117">
-        <v>0.16300000000000001</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="L50" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q50,$P50,$G50,$I50,$C$3,$J50,$K50,$C$4)*R50</f>
-        <v>11.800660171662969</v>
+        <v>1.8859038982856404</v>
       </c>
       <c r="M50" s="15"/>
       <c r="N50" s="13">
@@ -11947,14 +12789,13 @@
       </c>
       <c r="O50" s="13">
         <f t="shared" si="68"/>
-        <v>11.800660171662969</v>
+        <v>1.8859038982856404</v>
       </c>
       <c r="P50" s="120">
-        <f>RTD("wdf.rtq",,D50,"LastPrice")</f>
-        <v>3105</v>
+        <v>100</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R50" s="10">
         <f t="shared" si="69"/>
@@ -11965,30 +12806,30 @@
       </c>
       <c r="T50" s="14">
         <f t="shared" si="70"/>
-        <v>3.8005346768640804E-3</v>
+        <v>1.8859038982856405E-2</v>
       </c>
       <c r="U50" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q50,$P50,$G50,$I50,$C$3,$J50,$K50,$C$4)*R50</f>
-        <v>-9.5569520840399491E-2</v>
+        <v>-0.48972190738609811</v>
       </c>
       <c r="V50" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q50,$P50,$G50,$I50,$C$3,$J50,$K50,$C$4)*R50</f>
-        <v>2.6391511559445462</v>
+        <v>0.11603389504444905</v>
       </c>
       <c r="W50" s="114">
         <v>37.799999999999997</v>
       </c>
       <c r="X50" s="115">
         <f t="shared" si="71"/>
-        <v>2762.2</v>
+        <v>62.2</v>
       </c>
       <c r="Y50" s="6">
         <f t="shared" si="72"/>
-        <v>-47.784760420199746</v>
+        <v>-244.86095369304905</v>
       </c>
       <c r="Z50" s="6">
         <f>638*U50</f>
-        <v>-60.973354296174875</v>
+        <v>-312.44257691233059</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="10.5" customHeight="1">
@@ -12000,35 +12841,36 @@
         <v>160</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="E51" s="8">
         <f t="shared" ca="1" si="64"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F51" s="8">
         <f t="shared" ca="1" si="65"/>
-        <v>43322</v>
+        <v>43262</v>
       </c>
       <c r="G51" s="11">
-        <v>2700</v>
+        <f t="shared" si="73"/>
+        <v>100</v>
       </c>
       <c r="H51" s="10">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I51" s="12">
         <f t="shared" si="66"/>
-        <v>0.25205479452054796</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="J51" s="12">
         <v>0</v>
       </c>
       <c r="K51" s="117">
-        <v>0.16300000000000001</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="L51" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q51,$P51,$G51,$I51,$C$3,$J51,$K51,$C$4)*R51</f>
-        <v>4.2267893350245203</v>
+        <v>1.595807188203942</v>
       </c>
       <c r="M51" s="15"/>
       <c r="N51" s="13">
@@ -12037,14 +12879,13 @@
       </c>
       <c r="O51" s="13">
         <f t="shared" si="68"/>
-        <v>4.2267893350245203</v>
+        <v>1.595807188203942</v>
       </c>
       <c r="P51" s="120">
-        <f>RTD("wdf.rtq",,D51,"LastPrice")</f>
-        <v>3105</v>
+        <v>100</v>
       </c>
       <c r="Q51" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R51" s="10">
         <f t="shared" si="69"/>
@@ -12055,26 +12896,26 @@
       </c>
       <c r="T51" s="14">
         <f t="shared" si="70"/>
-        <v>1.3612848099917941E-3</v>
+        <v>1.5958071882039418E-2</v>
       </c>
       <c r="U51" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q51,$P51,$G51,$I51,$C$3,$J51,$K51,$C$4)*R51</f>
-        <v>-3.9962278611227475E-2</v>
+        <v>-0.49117239476039742</v>
       </c>
       <c r="V51" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q51,$P51,$G51,$I51,$C$3,$J51,$K51,$C$4)*R51</f>
-        <v>1.3408373613114435</v>
+        <v>0.11604313440593472</v>
       </c>
       <c r="W51" s="114">
         <v>37.799999999999997</v>
       </c>
       <c r="X51" s="115">
         <f t="shared" si="71"/>
-        <v>2662.2</v>
+        <v>62.2</v>
       </c>
       <c r="Y51" s="6">
         <f t="shared" si="72"/>
-        <v>-19.981139305613738</v>
+        <v>-245.58619738019871</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="10.5" customHeight="1">
@@ -12086,168 +12927,108 @@
         <v>160</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E52" s="8">
         <f t="shared" ca="1" si="64"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F52" s="8">
-        <f t="shared" ref="F52" ca="1" si="73">E52+H52</f>
-        <v>43413</v>
+        <f t="shared" ref="F52" ca="1" si="74">E52+H52</f>
+        <v>43262</v>
       </c>
       <c r="G52" s="11">
-        <v>2900</v>
+        <f t="shared" si="73"/>
+        <v>100</v>
       </c>
       <c r="H52" s="10">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="I52" s="12">
-        <f t="shared" si="66"/>
-        <v>0.50136986301369868</v>
+        <f t="shared" ref="I52" si="75">H52/365</f>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="J52" s="12">
         <v>0</v>
       </c>
       <c r="K52" s="117">
-        <v>0.15</v>
+        <v>0.1875</v>
       </c>
       <c r="L52" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q52,$P52,$G52,$I52,$C$3,$J52,$K52,$C$4)*R52</f>
-        <v>39.836652130453103</v>
+        <v>-2.1759755861492565</v>
       </c>
       <c r="M52" s="15"/>
       <c r="N52" s="13">
-        <f t="shared" ref="N52" si="74">M52/10000*I52*P52</f>
+        <f t="shared" ref="N52" si="76">M52/10000*I52*P52</f>
         <v>0</v>
       </c>
       <c r="O52" s="13">
-        <f t="shared" si="68"/>
-        <v>39.836652130453103</v>
+        <f t="shared" ref="O52" si="77">IF(L52&lt;=0,ABS(L52)+N52,L52-N52)</f>
+        <v>2.1759755861492565</v>
       </c>
       <c r="P52" s="120">
-        <f>RTD("wdf.rtq",,D52,"LastPrice")</f>
-        <v>3149</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R52" s="10">
-        <f t="shared" ref="R52" si="75">IF(S52="中金买入",1,-1)</f>
-        <v>1</v>
+        <f t="shared" ref="R52" si="78">IF(S52="中金买入",1,-1)</f>
+        <v>-1</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="T52" s="14">
-        <f t="shared" ref="T52" si="76">O52/P52</f>
-        <v>1.2650572286584028E-2</v>
+        <f t="shared" ref="T52" si="79">O52/P52</f>
+        <v>2.1759755861492563E-2</v>
       </c>
       <c r="U52" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q52,$P52,$G52,$I52,$C$3,$J52,$K52,$C$4)*R52</f>
-        <v>-0.20161224923640475</v>
+        <v>0.48827154614308199</v>
       </c>
       <c r="V52" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q52,$P52,$G52,$I52,$C$3,$J52,$K52,$C$4)*R52</f>
-        <v>6.2405675076990974</v>
+        <v>-0.11602311671913057</v>
       </c>
       <c r="W52" s="114">
         <v>37.799999999999997</v>
       </c>
       <c r="X52" s="115">
-        <f t="shared" si="71"/>
-        <v>2862.2</v>
+        <f t="shared" ref="X52" si="80">G52-W52</f>
+        <v>62.2</v>
       </c>
       <c r="Y52" s="6">
-        <f t="shared" si="72"/>
-        <v>-100.80612461820238</v>
+        <f t="shared" ref="Y52" si="81">500*U52</f>
+        <v>244.135773071541</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="10.5" customHeight="1">
       <c r="A53" s="34"/>
-      <c r="B53" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E53" s="8">
-        <f t="shared" ca="1" si="64"/>
-        <v>43230</v>
-      </c>
-      <c r="F53" s="8">
-        <f t="shared" ref="F53:F54" ca="1" si="77">E53+H53</f>
-        <v>43413</v>
-      </c>
-      <c r="G53" s="11">
-        <v>2800</v>
-      </c>
-      <c r="H53" s="10">
-        <v>183</v>
-      </c>
-      <c r="I53" s="12">
-        <f t="shared" si="66"/>
-        <v>0.50136986301369868</v>
-      </c>
-      <c r="J53" s="12">
-        <v>0</v>
-      </c>
-      <c r="K53" s="117">
-        <v>0.15</v>
-      </c>
-      <c r="L53" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q53,$P53,$G53,$I53,$C$3,$J53,$K53,$C$4)*R53</f>
-        <v>21.154473127014285</v>
-      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="117"/>
+      <c r="L53" s="13"/>
       <c r="M53" s="15"/>
-      <c r="N53" s="13">
-        <f t="shared" ref="N53:N54" si="78">M53/10000*I53*P53</f>
-        <v>0</v>
-      </c>
-      <c r="O53" s="13">
-        <f t="shared" si="68"/>
-        <v>21.154473127014285</v>
-      </c>
-      <c r="P53" s="120">
-        <f>RTD("wdf.rtq",,D53,"LastPrice")</f>
-        <v>3149</v>
-      </c>
-      <c r="Q53" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="R53" s="10">
-        <f t="shared" ref="R53:R54" si="79">IF(S53="中金买入",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="S53" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="T53" s="14">
-        <f t="shared" ref="T53:T54" si="80">O53/P53</f>
-        <v>6.7178384017193664E-3</v>
-      </c>
-      <c r="U53" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q53,$P53,$G53,$I53,$C$3,$J53,$K53,$C$4)*R53</f>
-        <v>-0.12198504794298515</v>
-      </c>
-      <c r="V53" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q53,$P53,$G53,$I53,$C$3,$J53,$K53,$C$4)*R53</f>
-        <v>4.49139374561355</v>
-      </c>
-      <c r="W53" s="114">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="X53" s="115">
-        <f t="shared" si="71"/>
-        <v>2762.2</v>
-      </c>
-      <c r="Y53" s="6">
-        <f t="shared" si="72"/>
-        <v>-60.992523971492574</v>
-      </c>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="120"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="114"/>
+      <c r="X53" s="115"/>
     </row>
     <row r="54" spans="1:26" ht="10.5" customHeight="1">
       <c r="A54" s="34"/>
@@ -12258,168 +13039,194 @@
         <v>160</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="E54" s="8">
         <f t="shared" ca="1" si="64"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F54" s="8">
-        <f t="shared" ca="1" si="77"/>
-        <v>43413</v>
+        <f t="shared" ref="F54:F57" ca="1" si="82">E54+H54</f>
+        <v>43251</v>
       </c>
       <c r="G54" s="11">
-        <v>2700</v>
+        <f t="shared" si="73"/>
+        <v>100</v>
       </c>
       <c r="H54" s="10">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="I54" s="12">
         <f t="shared" si="66"/>
-        <v>0.50136986301369868</v>
+        <v>5.4794520547945202E-2</v>
       </c>
       <c r="J54" s="12">
         <v>0</v>
       </c>
       <c r="K54" s="117">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="L54" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q54,$P54,$G54,$I54,$C$3,$J54,$K54,$C$4)*R54</f>
-        <v>10.087394989218268</v>
+        <v>1.6789705266844948</v>
       </c>
       <c r="M54" s="15"/>
       <c r="N54" s="13">
-        <f t="shared" si="78"/>
+        <f t="shared" ref="N54:N57" si="83">M54/10000*I54*P54</f>
         <v>0</v>
       </c>
       <c r="O54" s="13">
         <f t="shared" si="68"/>
-        <v>10.087394989218268</v>
+        <v>1.6789705266844948</v>
       </c>
       <c r="P54" s="120">
-        <f>RTD("wdf.rtq",,D54,"LastPrice")</f>
-        <v>3149</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R54" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="R54:R57" si="84">IF(S54="中金买入",1,-1)</f>
         <v>1</v>
       </c>
       <c r="S54" s="10" t="s">
         <v>151</v>
       </c>
       <c r="T54" s="14">
-        <f t="shared" si="80"/>
-        <v>3.2033645567539752E-3</v>
+        <f t="shared" ref="T54:T57" si="85">O54/P54</f>
+        <v>1.6789705266844947E-2</v>
       </c>
       <c r="U54" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q54,$P54,$G54,$I54,$C$3,$J54,$K54,$C$4)*R54</f>
-        <v>-6.5951605172642758E-2</v>
+        <v>-0.49105752593519014</v>
       </c>
       <c r="V54" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q54,$P54,$G54,$I54,$C$3,$J54,$K54,$C$4)*R54</f>
-        <v>2.8487468802812543</v>
+        <v>9.3262320146919819E-2</v>
       </c>
       <c r="W54" s="114">
         <v>37.799999999999997</v>
       </c>
       <c r="X54" s="115">
         <f t="shared" si="71"/>
-        <v>2662.2</v>
+        <v>62.2</v>
       </c>
       <c r="Y54" s="6">
         <f t="shared" si="72"/>
-        <v>-32.975802586321379</v>
+        <v>-245.52876296759507</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A55" s="34"/>
+      <c r="B55" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E55" s="8">
+        <f t="shared" ca="1" si="64"/>
+        <v>43231</v>
+      </c>
+      <c r="F55" s="8">
+        <f t="shared" ref="F55" ca="1" si="86">E55+H55</f>
+        <v>43281</v>
+      </c>
+      <c r="G55" s="11">
+        <f t="shared" si="73"/>
+        <v>100</v>
+      </c>
+      <c r="H55" s="10">
+        <v>50</v>
+      </c>
+      <c r="I55" s="12">
+        <f t="shared" ref="I55" si="87">H55/365</f>
+        <v>0.13698630136986301</v>
+      </c>
+      <c r="J55" s="12">
+        <v>0</v>
+      </c>
+      <c r="K55" s="117">
+        <v>0.24</v>
+      </c>
+      <c r="L55" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q55,$P55,$G55,$I55,$C$3,$J55,$K55,$C$4)*R55</f>
+        <v>-3.5328668252653728</v>
+      </c>
+      <c r="M55" s="15"/>
+      <c r="N55" s="13">
+        <f t="shared" ref="N55" si="88">M55/10000*I55*P55</f>
+        <v>0</v>
+      </c>
+      <c r="O55" s="13">
+        <f t="shared" ref="O55" si="89">IF(L55&lt;=0,ABS(L55)+N55,L55-N55)</f>
+        <v>3.5328668252653728</v>
+      </c>
+      <c r="P55" s="120">
+        <v>100</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="R55" s="10">
+        <f t="shared" ref="R55" si="90">IF(S55="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T55" s="14">
+        <f t="shared" ref="T55" si="91">O55/P55</f>
+        <v>3.5328668252653725E-2</v>
+      </c>
+      <c r="U55" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q55,$P55,$G55,$I55,$C$3,$J55,$K55,$C$4)*R55</f>
+        <v>0.48096768885876884</v>
+      </c>
+      <c r="V55" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q55,$P55,$G55,$I55,$C$3,$J55,$K55,$C$4)*R55</f>
+        <v>-0.14710593517011361</v>
+      </c>
+      <c r="W55" s="114">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="X55" s="115">
+        <f t="shared" ref="X55" si="92">G55-W55</f>
+        <v>62.2</v>
+      </c>
+      <c r="Y55" s="6">
+        <f t="shared" ref="Y55" si="93">500*U55</f>
+        <v>240.48384442938442</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="10.5" customHeight="1">
       <c r="A56" s="34"/>
-      <c r="B56" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E56" s="8">
-        <f ca="1">TODAY()</f>
-        <v>43230</v>
-      </c>
-      <c r="F56" s="8">
-        <f t="shared" ref="F56:F57" ca="1" si="81">E56+H56</f>
-        <v>43261</v>
-      </c>
-      <c r="G56" s="11">
-        <v>490</v>
-      </c>
-      <c r="H56" s="10">
-        <v>31</v>
-      </c>
-      <c r="I56" s="12">
-        <f>H56/365</f>
-        <v>8.4931506849315067E-2</v>
-      </c>
-      <c r="J56" s="12">
-        <v>0</v>
-      </c>
-      <c r="K56" s="117">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="L56" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q56,$P56,$G56,$I56,$C$3,$J56,$K56,$C$4)*R56</f>
-        <v>-7.8137169404275539</v>
-      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="117"/>
+      <c r="L56" s="13"/>
       <c r="M56" s="15"/>
-      <c r="N56" s="13">
-        <f t="shared" ref="N56:N57" si="82">M56/10000*I56*P56</f>
-        <v>0</v>
-      </c>
-      <c r="O56" s="13">
-        <f>IF(L56&lt;=0,ABS(L56)+N56,L56-N56)</f>
-        <v>7.8137169404275539</v>
-      </c>
-      <c r="P56" s="120">
-        <f>RTD("wdf.rtq",,D56,"LastPrice")</f>
-        <v>469.90000000000003</v>
-      </c>
-      <c r="Q56" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R56" s="10">
-        <f t="shared" ref="R56:R57" si="83">IF(S56="中金买入",1,-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="S56" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T56" s="14">
-        <f t="shared" ref="T56:T57" si="84">O56/P56</f>
-        <v>1.6628467632320822E-2</v>
-      </c>
-      <c r="U56" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q56,$P56,$G56,$I56,$C$3,$J56,$K56,$C$4)*R56</f>
-        <v>-0.32122004242438607</v>
-      </c>
-      <c r="V56" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q56,$P56,$G56,$I56,$C$3,$J56,$K56,$C$4)*R56</f>
-        <v>-0.48994479951436176</v>
-      </c>
-      <c r="W56" s="114">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="X56" s="115">
-        <f>G56-W56</f>
-        <v>452.2</v>
-      </c>
-      <c r="Y56" s="6">
-        <f>500*U56</f>
-        <v>-160.61002121219303</v>
-      </c>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="120"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="114"/>
+      <c r="X56" s="115"/>
     </row>
     <row r="57" spans="1:26" ht="10.5" customHeight="1">
       <c r="A57" s="34"/>
@@ -12430,173 +13237,579 @@
         <v>160</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="E57" s="8">
-        <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <f t="shared" ca="1" si="64"/>
+        <v>43231</v>
       </c>
       <c r="F57" s="8">
-        <f t="shared" ca="1" si="81"/>
-        <v>43322</v>
+        <f t="shared" ca="1" si="82"/>
+        <v>43262</v>
       </c>
       <c r="G57" s="11">
-        <v>490</v>
+        <f t="shared" si="73"/>
+        <v>100</v>
       </c>
       <c r="H57" s="10">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I57" s="12">
-        <f>H57/365</f>
-        <v>0.25205479452054796</v>
+        <f t="shared" si="66"/>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="J57" s="12">
         <v>0</v>
       </c>
       <c r="K57" s="117">
-        <v>0.28499999999999998</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="L57" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q57,$P57,$G57,$I57,$C$3,$J57,$K57,$C$4)*R57</f>
-        <v>-18.392745747032762</v>
+        <v>0.98653976806129151</v>
       </c>
       <c r="M57" s="15"/>
       <c r="N57" s="13">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="O57" s="13">
-        <f>IF(L57&lt;=0,ABS(L57)+N57,L57-N57)</f>
-        <v>18.392745747032762</v>
+        <f t="shared" si="68"/>
+        <v>0.98653976806129151</v>
       </c>
       <c r="P57" s="120">
-        <f>RTD("wdf.rtq",,D57,"LastPrice")</f>
-        <v>469.90000000000003</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="10" t="s">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="R57" s="10">
-        <f t="shared" si="83"/>
-        <v>-1</v>
+        <f t="shared" si="84"/>
+        <v>1</v>
       </c>
       <c r="S57" s="10" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="T57" s="14">
-        <f t="shared" si="84"/>
-        <v>3.9141829638290618E-2</v>
+        <f t="shared" si="85"/>
+        <v>9.8653976806129147E-3</v>
       </c>
       <c r="U57" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q57,$P57,$G57,$I57,$C$3,$J57,$K57,$C$4)*R57</f>
-        <v>-0.41039798581863352</v>
+        <v>-0.4942187472099846</v>
       </c>
       <c r="V57" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q57,$P57,$G57,$I57,$C$3,$J57,$K57,$C$4)*R57</f>
-        <v>-0.91374893170089422</v>
+        <v>0.1160575261767427</v>
       </c>
       <c r="W57" s="114">
         <v>37.799999999999997</v>
       </c>
       <c r="X57" s="115">
-        <f>G57-W57</f>
-        <v>452.2</v>
+        <f t="shared" si="71"/>
+        <v>62.2</v>
       </c>
       <c r="Y57" s="6">
-        <f>500*U57</f>
-        <v>-205.19899290931676</v>
+        <f t="shared" si="72"/>
+        <v>-247.1093736049923</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A58" s="34"/>
+      <c r="B58" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E58" s="8">
+        <f t="shared" ca="1" si="64"/>
+        <v>43231</v>
+      </c>
+      <c r="F58" s="8">
+        <f t="shared" ref="F58" ca="1" si="94">E58+H58</f>
+        <v>43262</v>
+      </c>
+      <c r="G58" s="11">
+        <f t="shared" si="73"/>
+        <v>100</v>
+      </c>
+      <c r="H58" s="10">
+        <v>31</v>
+      </c>
+      <c r="I58" s="12">
+        <f t="shared" ref="I58" si="95">H58/365</f>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="J58" s="12">
+        <v>0</v>
+      </c>
+      <c r="K58" s="117">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="L58" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q58,$P58,$G58,$I58,$C$3,$J58,$K58,$C$4)*R58</f>
+        <v>-1.6828385996297825</v>
+      </c>
+      <c r="M58" s="15"/>
+      <c r="N58" s="13">
+        <f t="shared" ref="N58" si="96">M58/10000*I58*P58</f>
+        <v>0</v>
+      </c>
+      <c r="O58" s="13">
+        <f t="shared" ref="O58" si="97">IF(L58&lt;=0,ABS(L58)+N58,L58-N58)</f>
+        <v>1.6828385996297825</v>
+      </c>
+      <c r="P58" s="120">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="R58" s="10">
+        <f t="shared" ref="R58" si="98">IF(S58="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S58" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T58" s="14">
+        <f t="shared" ref="T58" si="99">O58/P58</f>
+        <v>1.6828385996297827E-2</v>
+      </c>
+      <c r="U58" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q58,$P58,$G58,$I58,$C$3,$J58,$K58,$C$4)*R58</f>
+        <v>0.49073723641797073</v>
+      </c>
+      <c r="V58" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q58,$P58,$G58,$I58,$C$3,$J58,$K58,$C$4)*R58</f>
+        <v>-0.11604052421175837</v>
+      </c>
+      <c r="W58" s="114">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="X58" s="115">
+        <f t="shared" ref="X58" si="100">G58-W58</f>
+        <v>62.2</v>
+      </c>
+      <c r="Y58" s="6">
+        <f t="shared" ref="Y58" si="101">500*U58</f>
+        <v>245.36861820898537</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="10.5" customHeight="1">
       <c r="A59" s="34"/>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="13"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="117"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="120"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="14"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="114"/>
+      <c r="X59" s="115"/>
+    </row>
+    <row r="60" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A60" s="34"/>
+      <c r="B60" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D60" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E60" s="8">
+        <f ca="1">TODAY()</f>
+        <v>43231</v>
+      </c>
+      <c r="F60" s="8">
+        <f t="shared" ref="F60:F61" ca="1" si="102">E60+H60</f>
+        <v>43262</v>
+      </c>
+      <c r="G60" s="11">
+        <v>490</v>
+      </c>
+      <c r="H60" s="10">
+        <v>31</v>
+      </c>
+      <c r="I60" s="12">
+        <f>H60/365</f>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="J60" s="12">
+        <v>0</v>
+      </c>
+      <c r="K60" s="117">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="L60" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q60,$P60,$G60,$I60,$C$3,$J60,$K60,$C$4)*R60</f>
+        <v>-8.2390821620531938</v>
+      </c>
+      <c r="M60" s="15"/>
+      <c r="N60" s="13">
+        <f t="shared" ref="N60:N61" si="103">M60/10000*I60*P60</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="13">
+        <f>IF(L60&lt;=0,ABS(L60)+N60,L60-N60)</f>
+        <v>8.2390821620531938</v>
+      </c>
+      <c r="P60" s="120">
+        <f>RTD("wdf.rtq",,D60,"LastPrice")</f>
+        <v>471.2</v>
+      </c>
+      <c r="Q60" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R60" s="10">
+        <f t="shared" ref="R60:R61" si="104">IF(S60="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S60" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T60" s="14">
+        <f t="shared" ref="T60:T61" si="105">O60/P60</f>
+        <v>1.7485318680078934E-2</v>
+      </c>
+      <c r="U60" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q60,$P60,$G60,$I60,$C$3,$J60,$K60,$C$4)*R60</f>
+        <v>-0.33321213037567077</v>
+      </c>
+      <c r="V60" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q60,$P60,$G60,$I60,$C$3,$J60,$K60,$C$4)*R60</f>
+        <v>-0.4986537486577447</v>
+      </c>
+      <c r="W60" s="114">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="X60" s="115">
+        <f>G60-W60</f>
+        <v>452.2</v>
+      </c>
+      <c r="Y60" s="6">
+        <f>500*U60</f>
+        <v>-166.60606518783538</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A61" s="34"/>
+      <c r="B61" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E61" s="8">
+        <f ca="1">TODAY()</f>
+        <v>43231</v>
+      </c>
+      <c r="F61" s="8">
+        <f t="shared" ca="1" si="102"/>
+        <v>43323</v>
+      </c>
+      <c r="G61" s="11">
+        <v>490</v>
+      </c>
+      <c r="H61" s="10">
+        <v>92</v>
+      </c>
+      <c r="I61" s="12">
+        <f>H61/365</f>
+        <v>0.25205479452054796</v>
+      </c>
+      <c r="J61" s="12">
+        <v>0</v>
+      </c>
+      <c r="K61" s="117">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="L61" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q61,$P61,$G61,$I61,$C$3,$J61,$K61,$C$4)*R61</f>
+        <v>-18.931133484103185</v>
+      </c>
+      <c r="M61" s="15"/>
+      <c r="N61" s="13">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="13">
+        <f>IF(L61&lt;=0,ABS(L61)+N61,L61-N61)</f>
+        <v>18.931133484103185</v>
+      </c>
+      <c r="P61" s="120">
+        <f>RTD("wdf.rtq",,D61,"LastPrice")</f>
+        <v>471.2</v>
+      </c>
+      <c r="Q61" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R61" s="10">
+        <f t="shared" si="104"/>
+        <v>-1</v>
+      </c>
+      <c r="S61" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T61" s="14">
+        <f t="shared" si="105"/>
+        <v>4.0176429295634947E-2</v>
+      </c>
+      <c r="U61" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q61,$P61,$G61,$I61,$C$3,$J61,$K61,$C$4)*R61</f>
+        <v>-0.41789249145978147</v>
+      </c>
+      <c r="V61" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q61,$P61,$G61,$I61,$C$3,$J61,$K61,$C$4)*R61</f>
+        <v>-0.92003286049875044</v>
+      </c>
+      <c r="W61" s="114">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="X61" s="115">
+        <f>G61-W61</f>
+        <v>452.2</v>
+      </c>
+      <c r="Y61" s="6">
+        <f>500*U61</f>
+        <v>-208.94624572989073</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A63" s="34"/>
+      <c r="B63" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="E59" s="8">
-        <f t="shared" ref="E59" ca="1" si="85">TODAY()</f>
-        <v>43230</v>
-      </c>
-      <c r="F59" s="8">
-        <f t="shared" ref="F59" ca="1" si="86">E59+H59</f>
-        <v>43291</v>
-      </c>
-      <c r="G59" s="11">
+      <c r="E63" s="8">
+        <f t="shared" ref="E63" ca="1" si="106">TODAY()</f>
+        <v>43231</v>
+      </c>
+      <c r="F63" s="8">
+        <f t="shared" ref="F63" ca="1" si="107">E63+H63</f>
+        <v>43292</v>
+      </c>
+      <c r="G63" s="11">
         <v>100</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H63" s="10">
         <v>61</v>
       </c>
-      <c r="I59" s="12">
-        <f>H59/365</f>
+      <c r="I63" s="12">
+        <f>H63/365</f>
         <v>0.16712328767123288</v>
       </c>
-      <c r="J59" s="12">
-        <v>0</v>
-      </c>
-      <c r="K59" s="117">
+      <c r="J63" s="12">
+        <v>0</v>
+      </c>
+      <c r="K63" s="117">
         <v>0.33</v>
       </c>
-      <c r="L59" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q59,$P59,$G59,$I59,$C$3,$J59,$K59,$C$4)*R59</f>
+      <c r="L63" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q63,$P63,$G63,$I63,$C$3,$J63,$K63,$C$4)*R63</f>
         <v>-5.3599611443800299</v>
       </c>
-      <c r="M59" s="15"/>
-      <c r="N59" s="13">
-        <f t="shared" ref="N59" si="87">M59/10000*I59*P59</f>
-        <v>0</v>
-      </c>
-      <c r="O59" s="13">
-        <f>IF(L59&lt;=0,ABS(L59)+N59,L59-N59)</f>
+      <c r="M63" s="15"/>
+      <c r="N63" s="13">
+        <f t="shared" ref="N63" si="108">M63/10000*I63*P63</f>
+        <v>0</v>
+      </c>
+      <c r="O63" s="13">
+        <f>IF(L63&lt;=0,ABS(L63)+N63,L63-N63)</f>
         <v>5.3599611443800299</v>
       </c>
-      <c r="P59" s="11">
+      <c r="P63" s="11">
         <v>100</v>
       </c>
-      <c r="Q59" s="10" t="s">
+      <c r="Q63" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R59" s="10">
-        <f t="shared" ref="R59" si="88">IF(S59="中金买入",1,-1)</f>
+      <c r="R63" s="10">
+        <f t="shared" ref="R63" si="109">IF(S63="中金买入",1,-1)</f>
         <v>-1</v>
       </c>
-      <c r="S59" s="10" t="s">
+      <c r="S63" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T59" s="14">
-        <f t="shared" ref="T59" si="89">O59/P59</f>
+      <c r="T63" s="14">
+        <f t="shared" ref="T63" si="110">O63/P63</f>
         <v>5.35996114438003E-2</v>
       </c>
-      <c r="U59" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q59,$P59,$G59,$I59,$C$3,$J59,$K59,$C$4)*R59</f>
+      <c r="U63" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q63,$P63,$G63,$I63,$C$3,$J63,$K63,$C$4)*R63</f>
         <v>-0.52513135540372957</v>
       </c>
-      <c r="V59" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q59,$P59,$G59,$I59,$C$3,$J59,$K59,$C$4)*R59</f>
+      <c r="V63" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q63,$P63,$G63,$I63,$C$3,$J63,$K63,$C$4)*R63</f>
         <v>-0.16217676403383763</v>
       </c>
-      <c r="W59" s="114">
+      <c r="W63" s="114">
         <v>37.799999999999997</v>
       </c>
-      <c r="X59" s="115">
-        <f>G59-W59</f>
+      <c r="X63" s="115">
+        <f>G63-W63</f>
         <v>62.2</v>
       </c>
-      <c r="Y59" s="6">
-        <f>500*U59</f>
+      <c r="Y63" s="6">
+        <f>500*U63</f>
         <v>-262.56567770186479</v>
       </c>
     </row>
+    <row r="70" spans="6:10">
+      <c r="G70" s="149" t="s">
+        <v>273</v>
+      </c>
+      <c r="H70" s="149"/>
+      <c r="I70" s="149" t="s">
+        <v>274</v>
+      </c>
+      <c r="J70" s="149"/>
+    </row>
+    <row r="71" spans="6:10">
+      <c r="F71" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="G71" s="118">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="H71" s="118">
+        <v>0.2175</v>
+      </c>
+      <c r="I71" s="6">
+        <v>14.36</v>
+      </c>
+      <c r="J71" s="6">
+        <v>18.940000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="6:10">
+      <c r="F72" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G72" s="118">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H72" s="118">
+        <v>0.215</v>
+      </c>
+      <c r="I72" s="6">
+        <v>16.12</v>
+      </c>
+      <c r="J72" s="6">
+        <v>21.07</v>
+      </c>
+    </row>
+    <row r="73" spans="6:10">
+      <c r="F73" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G73" s="118">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="H73" s="118">
+        <v>0.1875</v>
+      </c>
+      <c r="I73" s="6">
+        <v>12.55</v>
+      </c>
+      <c r="J73" s="6">
+        <v>16.579999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="6:10">
+      <c r="F75" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G75" s="118">
+        <v>0.18</v>
+      </c>
+      <c r="H75" s="118">
+        <v>0.24</v>
+      </c>
+      <c r="I75" s="6">
+        <v>17.39</v>
+      </c>
+      <c r="J75" s="6">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="76" spans="6:10">
+      <c r="F76" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="G76" s="118">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="H76" s="118">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="I76" s="6">
+        <v>17.82</v>
+      </c>
+      <c r="J76" s="6">
+        <v>22.86</v>
+      </c>
+    </row>
+    <row r="77" spans="6:10">
+      <c r="G77" s="118"/>
+      <c r="H77" s="118"/>
+    </row>
+    <row r="78" spans="6:10">
+      <c r="F78" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G78" s="118">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H78" s="118">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="I78" s="6">
+        <v>7.46</v>
+      </c>
+      <c r="J78" s="6">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="79" spans="6:10">
+      <c r="G79" s="118"/>
+      <c r="H79" s="118"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="G70:H70"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -12606,19 +13819,19 @@
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>S8:S9 S11 S13:S38 S40:S42 S44:S47 S56:S57 S49:S54 S59</xm:sqref>
+          <xm:sqref>S8:S9 S11 S13:S38 S40:S42 S44:S47 S63 S49:S61</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q8:Q9 Q11 Q13:Q38 Q40:Q42 Q44:Q47 Q56:Q57 Q49:Q54 Q59</xm:sqref>
+          <xm:sqref>Q8:Q9 Q11 Q13:Q38 Q40:Q42 Q44:Q47 Q63 Q49:Q61</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>configs!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C9 C11 C13:C38 C40:C42 C44:C47 C49:C54 C56:C57 C59</xm:sqref>
+          <xm:sqref>C8:C9 C11 C13:C38 C40:C42 C44:C47 C63 C49:C61</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12635,7 +13848,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12645,8 +13858,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:S31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -12806,11 +14019,11 @@
       </c>
       <c r="E8" s="46">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F8" s="46">
         <f ca="1">E8+H8</f>
-        <v>43260</v>
+        <v>43261</v>
       </c>
       <c r="G8" s="44">
         <v>100</v>
@@ -12874,11 +14087,11 @@
       </c>
       <c r="E9" s="54">
         <f ca="1">E8</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F9" s="54">
         <f ca="1">F8</f>
-        <v>43260</v>
+        <v>43261</v>
       </c>
       <c r="G9" s="52">
         <v>100</v>
@@ -12945,11 +14158,11 @@
       </c>
       <c r="E10" s="62">
         <f ca="1">E9</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F10" s="62">
         <f ca="1">F9</f>
-        <v>43260</v>
+        <v>43261</v>
       </c>
       <c r="G10" s="60" t="str">
         <f>G8 &amp; "|" &amp; G9</f>
@@ -13013,15 +14226,15 @@
       </c>
       <c r="E11" s="46">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F11" s="46">
         <f ca="1">E11+H11</f>
-        <v>43245</v>
+        <v>43246</v>
       </c>
       <c r="G11" s="113">
         <f>P11-20</f>
-        <v>452</v>
+        <v>462.5</v>
       </c>
       <c r="H11" s="44">
         <v>15</v>
@@ -13038,17 +14251,17 @@
       </c>
       <c r="L11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-3.928856816994923</v>
+        <v>-4.1275207143674777</v>
       </c>
       <c r="M11" s="49"/>
       <c r="N11" s="43"/>
       <c r="O11" s="43">
         <f t="shared" ref="O11:O13" si="1">IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>3.928856816994923</v>
+        <v>4.1275207143674777</v>
       </c>
       <c r="P11" s="110">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>472</v>
+        <v>482.5</v>
       </c>
       <c r="Q11" s="44" t="s">
         <v>85</v>
@@ -13063,11 +14276,11 @@
       <c r="T11" s="50"/>
       <c r="U11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>0.22875408014613186</v>
+        <v>0.23357112862427698</v>
       </c>
       <c r="V11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-0.28948828942910865</v>
+        <v>-0.29939015517881984</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="95" customFormat="1" ht="13.5">
@@ -13083,15 +14296,15 @@
       </c>
       <c r="E12" s="54">
         <f t="shared" ref="E12:F12" ca="1" si="2">E11</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F12" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43245</v>
+        <v>43246</v>
       </c>
       <c r="G12" s="52">
         <f>G11+50</f>
-        <v>502</v>
+        <v>512.5</v>
       </c>
       <c r="H12" s="52">
         <f>H11</f>
@@ -13110,17 +14323,17 @@
       </c>
       <c r="L12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>2.1710218193427266</v>
+        <v>2.3147428182975744</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="51"/>
       <c r="O12" s="51">
         <f t="shared" si="1"/>
-        <v>2.1710218193427266</v>
+        <v>2.3147428182975744</v>
       </c>
       <c r="P12" s="94">
         <f>P11</f>
-        <v>472</v>
+        <v>482.5</v>
       </c>
       <c r="Q12" s="52" t="s">
         <v>39</v>
@@ -13135,11 +14348,11 @@
       <c r="T12" s="58"/>
       <c r="U12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.15402771344028565</v>
+        <v>0.15933826730076817</v>
       </c>
       <c r="V12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.22690056918161616</v>
+        <v>0.23718204949661015</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1">
@@ -13156,15 +14369,15 @@
       </c>
       <c r="E13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43245</v>
+        <v>43246</v>
       </c>
       <c r="G13" s="60" t="str">
         <f>G11 &amp; "|" &amp; G12</f>
-        <v>452|502</v>
+        <v>462.5|512.5</v>
       </c>
       <c r="H13" s="60">
         <f>H12</f>
@@ -13178,7 +14391,7 @@
       <c r="K13" s="60"/>
       <c r="L13" s="59">
         <f>L12+L11</f>
-        <v>-1.7578349976521963</v>
+        <v>-1.8127778960699032</v>
       </c>
       <c r="M13" s="60">
         <v>0</v>
@@ -13189,11 +14402,11 @@
       </c>
       <c r="O13" s="59">
         <f t="shared" si="1"/>
-        <v>1.7578349976521963</v>
+        <v>1.8127778960699032</v>
       </c>
       <c r="P13" s="111">
         <f>P12</f>
-        <v>472</v>
+        <v>482.5</v>
       </c>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
@@ -13202,15 +14415,15 @@
       </c>
       <c r="T13" s="64">
         <f>O13/P13</f>
-        <v>3.724226689941094E-3</v>
+        <v>3.7570526343417682E-3</v>
       </c>
       <c r="U13" s="64">
         <f>U12+U11</f>
-        <v>0.38278179358641751</v>
+        <v>0.39290939592504515</v>
       </c>
       <c r="V13" s="64">
         <f>V12+V11</f>
-        <v>-6.2587720247492484E-2</v>
+        <v>-6.2208105682209691E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1">
@@ -13226,11 +14439,11 @@
       </c>
       <c r="E14" s="46">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F14" s="46">
         <f ca="1">E14+H14</f>
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="G14" s="113">
         <v>3480</v>
@@ -13251,17 +14464,17 @@
       </c>
       <c r="L14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-305.03856925901346</v>
+        <v>-323.43546860583911</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="43"/>
       <c r="O14" s="43">
         <f t="shared" ref="O14:O16" si="4">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>305.03856925901346</v>
+        <v>323.43546860583911</v>
       </c>
       <c r="P14" s="110">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3647</v>
+        <v>3675</v>
       </c>
       <c r="Q14" s="44" t="s">
         <v>39</v>
@@ -13276,11 +14489,11 @@
       <c r="T14" s="50"/>
       <c r="U14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.6476841574340142</v>
+        <v>-0.66629092170842341</v>
       </c>
       <c r="V14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-6.7046005367189991</v>
+        <v>-6.614869121952097</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="95" customFormat="1" ht="13.5">
@@ -13297,11 +14510,11 @@
       </c>
       <c r="E15" s="54">
         <f t="shared" ref="E15:F15" ca="1" si="5">E14</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F15" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="G15" s="52">
         <v>3280</v>
@@ -13323,17 +14536,17 @@
       </c>
       <c r="L15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>62.086881891948792</v>
+        <v>56.624720400666092</v>
       </c>
       <c r="M15" s="57"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51">
         <f t="shared" si="4"/>
-        <v>62.086881891948792</v>
+        <v>56.624720400666092</v>
       </c>
       <c r="P15" s="94">
         <f>P14</f>
-        <v>3647</v>
+        <v>3675</v>
       </c>
       <c r="Q15" s="52" t="s">
         <v>85</v>
@@ -13348,11 +14561,11 @@
       <c r="T15" s="58"/>
       <c r="U15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.20267321578444353</v>
+        <v>-0.18761783629770434</v>
       </c>
       <c r="V15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>5.1269937817433515</v>
+        <v>4.9298784881166284</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1">
@@ -13369,11 +14582,11 @@
       </c>
       <c r="E16" s="62">
         <f t="shared" ref="E16:F16" ca="1" si="6">E15</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F16" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="G16" s="60" t="str">
         <f>G14 &amp; "|" &amp; G15</f>
@@ -13391,7 +14604,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="59">
         <f>L15+L14</f>
-        <v>-242.95168736706466</v>
+        <v>-266.81074820517301</v>
       </c>
       <c r="M16" s="60">
         <v>0</v>
@@ -13402,11 +14615,11 @@
       </c>
       <c r="O16" s="59">
         <f t="shared" si="4"/>
-        <v>242.95168736706466</v>
+        <v>266.81074820517301</v>
       </c>
       <c r="P16" s="111">
         <f>P15</f>
-        <v>3647</v>
+        <v>3675</v>
       </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
@@ -13415,15 +14628,15 @@
       </c>
       <c r="T16" s="64">
         <f>O16/P16</f>
-        <v>6.6616859711287266E-2</v>
+        <v>7.2601564137462049E-2</v>
       </c>
       <c r="U16" s="64">
         <f>U15+U14</f>
-        <v>-0.85035737321845772</v>
+        <v>-0.85390875800612775</v>
       </c>
       <c r="V16" s="64">
         <f>V15+V14</f>
-        <v>-1.5776067549756476</v>
+        <v>-1.6849906338354685</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="12" thickBot="1"/>
@@ -13440,11 +14653,11 @@
       </c>
       <c r="E18" s="46">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F18" s="46">
         <f ca="1">E18+H18</f>
-        <v>43261</v>
+        <v>43262</v>
       </c>
       <c r="G18" s="121">
         <v>3000</v>
@@ -13464,17 +14677,17 @@
       </c>
       <c r="L18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>19.029081832263955</v>
+        <v>26.984653425873717</v>
       </c>
       <c r="M18" s="49"/>
       <c r="N18" s="43"/>
       <c r="O18" s="43">
         <f t="shared" ref="O18:O20" si="7">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>19.029081832263955</v>
+        <v>26.984653425873717</v>
       </c>
       <c r="P18" s="110">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>3105</v>
+        <v>3074</v>
       </c>
       <c r="Q18" s="44" t="s">
         <v>85</v>
@@ -13489,11 +14702,11 @@
       <c r="T18" s="50"/>
       <c r="U18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.22292379906616588</v>
+        <v>-0.29207220646298993</v>
       </c>
       <c r="V18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>2.6952943873762933</v>
+        <v>3.0724780598762891</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="95" customFormat="1" ht="13.5">
@@ -13510,11 +14723,11 @@
       </c>
       <c r="E19" s="54">
         <f t="shared" ref="E19:F19" ca="1" si="8">E18</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F19" s="54">
         <f t="shared" ca="1" si="8"/>
-        <v>43261</v>
+        <v>43262</v>
       </c>
       <c r="G19" s="122">
         <v>3280</v>
@@ -13536,17 +14749,17 @@
       </c>
       <c r="L19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-12.762764622084774</v>
+        <v>-8.6498021580522959</v>
       </c>
       <c r="M19" s="57"/>
       <c r="N19" s="51"/>
       <c r="O19" s="51">
         <f t="shared" si="7"/>
-        <v>12.762764622084774</v>
+        <v>8.6498021580522959</v>
       </c>
       <c r="P19" s="94">
         <f>P18</f>
-        <v>3105</v>
+        <v>3074</v>
       </c>
       <c r="Q19" s="52" t="s">
         <v>39</v>
@@ -13561,11 +14774,11 @@
       <c r="T19" s="58"/>
       <c r="U19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-0.15384127000572789</v>
+        <v>-0.11289482307574872</v>
       </c>
       <c r="V19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-2.1420391380790136</v>
+        <v>-1.7133199406842152</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1">
@@ -13582,11 +14795,11 @@
       </c>
       <c r="E20" s="62">
         <f t="shared" ref="E20:F20" ca="1" si="9">E19</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F20" s="62">
         <f t="shared" ca="1" si="9"/>
-        <v>43261</v>
+        <v>43262</v>
       </c>
       <c r="G20" s="60" t="str">
         <f>G18 &amp; "|" &amp; G19</f>
@@ -13604,7 +14817,7 @@
       <c r="K20" s="60"/>
       <c r="L20" s="59">
         <f>L19+L18</f>
-        <v>6.2663172101791815</v>
+        <v>18.334851267821421</v>
       </c>
       <c r="M20" s="60">
         <v>0</v>
@@ -13615,26 +14828,26 @@
       </c>
       <c r="O20" s="59">
         <f t="shared" si="7"/>
-        <v>6.2663172101791815</v>
+        <v>18.334851267821421</v>
       </c>
       <c r="P20" s="111">
         <f>P19</f>
-        <v>3105</v>
+        <v>3074</v>
       </c>
       <c r="Q20" s="60"/>
       <c r="R20" s="60"/>
       <c r="S20" s="56"/>
       <c r="T20" s="64">
         <f>O20/P20</f>
-        <v>2.0181375878193823E-3</v>
+        <v>5.9644929303257713E-3</v>
       </c>
       <c r="U20" s="64">
         <f>U19+U18</f>
-        <v>-0.37676506907189378</v>
+        <v>-0.40496702953873864</v>
       </c>
       <c r="V20" s="64">
         <f>V19+V18</f>
-        <v>0.55325524929727976</v>
+        <v>1.3591581191920739</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1">
@@ -13650,11 +14863,11 @@
       </c>
       <c r="E21" s="46">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F21" s="46">
         <f ca="1">E21+H21</f>
-        <v>43322</v>
+        <v>43323</v>
       </c>
       <c r="G21" s="121">
         <v>3000</v>
@@ -13674,17 +14887,17 @@
       </c>
       <c r="L21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>53.850554843867599</v>
+        <v>64.412856619196418</v>
       </c>
       <c r="M21" s="49"/>
       <c r="N21" s="43"/>
       <c r="O21" s="43">
         <f t="shared" ref="O21:O23" si="10">IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>53.850554843867599</v>
+        <v>64.412856619196418</v>
       </c>
       <c r="P21" s="110">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>3105</v>
+        <v>3074</v>
       </c>
       <c r="Q21" s="44" t="s">
         <v>85</v>
@@ -13699,11 +14912,11 @@
       <c r="T21" s="50"/>
       <c r="U21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.3181323816022541</v>
+        <v>-0.36376826732293921</v>
       </c>
       <c r="V21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>5.5428824221896207</v>
+        <v>5.7739383550540424</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="95" customFormat="1" ht="13.5">
@@ -13720,11 +14933,11 @@
       </c>
       <c r="E22" s="54">
         <f t="shared" ref="E22:F22" ca="1" si="11">E21</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F22" s="54">
         <f t="shared" ca="1" si="11"/>
-        <v>43322</v>
+        <v>43323</v>
       </c>
       <c r="G22" s="122">
         <v>3280</v>
@@ -13746,17 +14959,17 @@
       </c>
       <c r="L22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-47.845858825486744</v>
+        <v>-39.557069047182495</v>
       </c>
       <c r="M22" s="57"/>
       <c r="N22" s="51"/>
       <c r="O22" s="51">
         <f t="shared" si="10"/>
-        <v>47.845858825486744</v>
+        <v>39.557069047182495</v>
       </c>
       <c r="P22" s="94">
         <f>P21</f>
-        <v>3105</v>
+        <v>3074</v>
       </c>
       <c r="Q22" s="52" t="s">
         <v>39</v>
@@ -13771,11 +14984,11 @@
       <c r="T22" s="58"/>
       <c r="U22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-0.28576843228620419</v>
+        <v>-0.24934698142260459</v>
       </c>
       <c r="V22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-5.282483947150979</v>
+        <v>-4.8826426470463389</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1">
@@ -13792,11 +15005,11 @@
       </c>
       <c r="E23" s="62">
         <f t="shared" ref="E23:F23" ca="1" si="12">E22</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F23" s="62">
         <f t="shared" ca="1" si="12"/>
-        <v>43322</v>
+        <v>43323</v>
       </c>
       <c r="G23" s="60" t="str">
         <f>G21 &amp; "|" &amp; G22</f>
@@ -13814,7 +15027,7 @@
       <c r="K23" s="60"/>
       <c r="L23" s="59">
         <f>L22+L21</f>
-        <v>6.0046960183808551</v>
+        <v>24.855787572013924</v>
       </c>
       <c r="M23" s="60">
         <v>0</v>
@@ -13825,26 +15038,26 @@
       </c>
       <c r="O23" s="59">
         <f t="shared" si="10"/>
-        <v>6.0046960183808551</v>
+        <v>24.855787572013924</v>
       </c>
       <c r="P23" s="111">
         <f>P22</f>
-        <v>3105</v>
+        <v>3074</v>
       </c>
       <c r="Q23" s="60"/>
       <c r="R23" s="60"/>
       <c r="S23" s="56"/>
       <c r="T23" s="64">
         <f>O23/P23</f>
-        <v>1.9338795550340917E-3</v>
+        <v>8.0858124827631501E-3</v>
       </c>
       <c r="U23" s="64">
         <f>U22+U21</f>
-        <v>-0.60390081388845829</v>
+        <v>-0.61311524874554379</v>
       </c>
       <c r="V23" s="64">
         <f>V22+V21</f>
-        <v>0.26039847503864166</v>
+        <v>0.89129570800770352</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="12" thickBot="1"/>
@@ -13861,11 +15074,11 @@
       </c>
       <c r="E26" s="46">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F26" s="46">
         <f ca="1">E26+H26</f>
-        <v>43261</v>
+        <v>43262</v>
       </c>
       <c r="G26" s="121">
         <v>2950</v>
@@ -13885,17 +15098,17 @@
       </c>
       <c r="L26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>9.6997280210679264</v>
+        <v>14.519163932758829</v>
       </c>
       <c r="M26" s="49"/>
       <c r="N26" s="43"/>
       <c r="O26" s="43">
         <f t="shared" ref="O26:O31" si="13">IF(L26&lt;=0,ABS(L26)+N26,L26-N26)</f>
-        <v>9.6997280210679264</v>
+        <v>14.519163932758829</v>
       </c>
       <c r="P26" s="110">
         <f>RTD("wdf.rtq",,D26,"LastPrice")</f>
-        <v>3105</v>
+        <v>3074</v>
       </c>
       <c r="Q26" s="44" t="s">
         <v>85</v>
@@ -13910,11 +15123,11 @@
       <c r="T26" s="50"/>
       <c r="U26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>-0.13080854708107381</v>
+        <v>-0.18206822623483276</v>
       </c>
       <c r="V26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>1.9187629990645974</v>
+        <v>2.3634345491004183</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="95" customFormat="1" ht="13.5">
@@ -13931,11 +15144,11 @@
       </c>
       <c r="E27" s="54">
         <f t="shared" ref="E27:F27" ca="1" si="14">E26</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F27" s="54">
         <f t="shared" ca="1" si="14"/>
-        <v>43261</v>
+        <v>43262</v>
       </c>
       <c r="G27" s="122">
         <v>3350</v>
@@ -13957,17 +15170,17 @@
       </c>
       <c r="L27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-5.5683458672129689</v>
+        <v>-3.559191643600002</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="51"/>
       <c r="O27" s="51">
         <f t="shared" si="13"/>
-        <v>5.5683458672129689</v>
+        <v>3.559191643600002</v>
       </c>
       <c r="P27" s="94">
         <f>P26</f>
-        <v>3105</v>
+        <v>3074</v>
       </c>
       <c r="Q27" s="52" t="s">
         <v>39</v>
@@ -13982,11 +15195,11 @@
       <c r="T27" s="58"/>
       <c r="U27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-7.7447087005566573E-2</v>
+        <v>-5.3300293262736886E-2</v>
       </c>
       <c r="V27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-1.3107962666004056</v>
+        <v>-0.97135425402549913</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1">
@@ -14003,11 +15216,11 @@
       </c>
       <c r="E28" s="62">
         <f t="shared" ref="E28:F28" ca="1" si="15">E27</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F28" s="62">
         <f t="shared" ca="1" si="15"/>
-        <v>43261</v>
+        <v>43262</v>
       </c>
       <c r="G28" s="60" t="str">
         <f>G26 &amp; "|" &amp; G27</f>
@@ -14025,7 +15238,7 @@
       <c r="K28" s="60"/>
       <c r="L28" s="59">
         <f>L27+L26</f>
-        <v>4.1313821538549576</v>
+        <v>10.959972289158827</v>
       </c>
       <c r="M28" s="60">
         <v>0</v>
@@ -14036,26 +15249,26 @@
       </c>
       <c r="O28" s="59">
         <f t="shared" si="13"/>
-        <v>4.1313821538549576</v>
+        <v>10.959972289158827</v>
       </c>
       <c r="P28" s="111">
         <f>P27</f>
-        <v>3105</v>
+        <v>3074</v>
       </c>
       <c r="Q28" s="60"/>
       <c r="R28" s="60"/>
       <c r="S28" s="56"/>
       <c r="T28" s="64">
         <f>O28/P28</f>
-        <v>1.330557859534608E-3</v>
+        <v>3.5653781031746348E-3</v>
       </c>
       <c r="U28" s="64">
         <f>U27+U26</f>
-        <v>-0.20825563408664038</v>
+        <v>-0.23536851949756965</v>
       </c>
       <c r="V28" s="64">
         <f>V27+V26</f>
-        <v>0.60796673246419175</v>
+        <v>1.3920802950749191</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1">
@@ -14071,11 +15284,11 @@
       </c>
       <c r="E29" s="46">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F29" s="46">
         <f ca="1">E29+H29</f>
-        <v>43322</v>
+        <v>43323</v>
       </c>
       <c r="G29" s="121">
         <v>2950</v>
@@ -14095,17 +15308,17 @@
       </c>
       <c r="L29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>38.35246479865782</v>
+        <v>46.65906268946685</v>
       </c>
       <c r="M29" s="49"/>
       <c r="N29" s="43"/>
       <c r="O29" s="43">
         <f t="shared" si="13"/>
-        <v>38.35246479865782</v>
+        <v>46.65906268946685</v>
       </c>
       <c r="P29" s="110">
         <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
-        <v>3105</v>
+        <v>3074</v>
       </c>
       <c r="Q29" s="44" t="s">
         <v>85</v>
@@ -14120,11 +15333,11 @@
       <c r="T29" s="50"/>
       <c r="U29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-0.24774274364744997</v>
+        <v>-0.2887604250190634</v>
       </c>
       <c r="V29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>4.914871759953769</v>
+        <v>5.255615360060176</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="95" customFormat="1" ht="13.5">
@@ -14141,11 +15354,11 @@
       </c>
       <c r="E30" s="54">
         <f t="shared" ref="E30:F30" ca="1" si="16">E29</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F30" s="54">
         <f t="shared" ca="1" si="16"/>
-        <v>43322</v>
+        <v>43323</v>
       </c>
       <c r="G30" s="122">
         <v>3350</v>
@@ -14167,17 +15380,17 @@
       </c>
       <c r="L30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-32.424633894990279</v>
+        <v>-26.32968851235853</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="51"/>
       <c r="O30" s="51">
         <f t="shared" si="13"/>
-        <v>32.424633894990279</v>
+        <v>26.32968851235853</v>
       </c>
       <c r="P30" s="94">
         <f>P29</f>
-        <v>3105</v>
+        <v>3074</v>
       </c>
       <c r="Q30" s="52" t="s">
         <v>39</v>
@@ -14192,11 +15405,11 @@
       <c r="T30" s="58"/>
       <c r="U30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-0.21217042659031904</v>
+        <v>-0.18148338463674918</v>
       </c>
       <c r="V30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-4.5065868652422978</v>
+        <v>-4.058862517280204</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1">
@@ -14213,11 +15426,11 @@
       </c>
       <c r="E31" s="62">
         <f t="shared" ref="E31:F31" ca="1" si="17">E30</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="F31" s="62">
         <f t="shared" ca="1" si="17"/>
-        <v>43322</v>
+        <v>43323</v>
       </c>
       <c r="G31" s="60" t="str">
         <f>G29 &amp; "|" &amp; G30</f>
@@ -14235,7 +15448,7 @@
       <c r="K31" s="60"/>
       <c r="L31" s="59">
         <f>L30+L29</f>
-        <v>5.927830903667541</v>
+        <v>20.329374177108321</v>
       </c>
       <c r="M31" s="60">
         <v>0</v>
@@ -14246,33 +15459,33 @@
       </c>
       <c r="O31" s="59">
         <f t="shared" si="13"/>
-        <v>5.927830903667541</v>
+        <v>20.329374177108321</v>
       </c>
       <c r="P31" s="111">
         <f>P30</f>
-        <v>3105</v>
+        <v>3074</v>
       </c>
       <c r="Q31" s="60"/>
       <c r="R31" s="60"/>
       <c r="S31" s="56"/>
       <c r="T31" s="64">
         <f>O31/P31</f>
-        <v>1.9091242845950213E-3</v>
+        <v>6.6133292703670528E-3</v>
       </c>
       <c r="U31" s="64">
         <f>U30+U29</f>
-        <v>-0.45991317023776901</v>
+        <v>-0.47024380965581258</v>
       </c>
       <c r="V31" s="64">
         <f>V30+V29</f>
-        <v>0.40828489471147122</v>
+        <v>1.1967528427799721</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -14621,11 +15834,11 @@
       </c>
       <c r="K10" s="38">
         <f ca="1">pricer_sf!M11</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="L10" s="38">
         <f ca="1">pricer_sf!N11</f>
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="M10" s="10">
         <f>pricer_sf!O11</f>
@@ -14703,11 +15916,11 @@
       </c>
       <c r="K11" s="38">
         <f ca="1">pricer_sf!M12</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="L11" s="38">
         <f ca="1">pricer_sf!N12</f>
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="M11" s="10">
         <f>pricer_sf!O12</f>
@@ -14785,11 +15998,11 @@
       </c>
       <c r="K12" s="38">
         <f ca="1">pricer_sf!M13</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="L12" s="38">
         <f ca="1">pricer_sf!N13</f>
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="M12" s="10">
         <f>pricer_sf!O13</f>
@@ -14867,11 +16080,11 @@
       </c>
       <c r="K13" s="38">
         <f ca="1">pricer_sf!M14</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="L13" s="38">
         <f ca="1">pricer_sf!N14</f>
-        <v>43413</v>
+        <v>43414</v>
       </c>
       <c r="M13" s="10">
         <f>pricer_sf!O14</f>
@@ -14949,11 +16162,11 @@
       </c>
       <c r="K14" s="38">
         <f ca="1">pricer_sf!M15</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="L14" s="38">
         <f ca="1">pricer_sf!N15</f>
-        <v>43413</v>
+        <v>43414</v>
       </c>
       <c r="M14" s="10">
         <f>pricer_sf!O15</f>
@@ -15031,11 +16244,11 @@
       </c>
       <c r="K15" s="38">
         <f ca="1">pricer_sf!M16</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="L15" s="38">
         <f ca="1">pricer_sf!N16</f>
-        <v>43413</v>
+        <v>43414</v>
       </c>
       <c r="M15" s="10">
         <f>pricer_sf!O16</f>
@@ -15075,7 +16288,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15085,7 +16298,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -15685,7 +16898,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15872,7 +17085,7 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>4010</v>
+        <v>3900</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -15889,11 +17102,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43260</v>
+        <v>43261</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -15910,18 +17123,18 @@
       </c>
       <c r="S8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-80.2</v>
+        <v>-78</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
       <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>2.6367123287671235</v>
+        <v>2.5643835616438357</v>
       </c>
       <c r="V8" s="24">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>82.836712328767121</v>
+        <v>80.564383561643837</v>
       </c>
       <c r="W8" s="26">
         <f>V8/H8</f>
@@ -15975,11 +17188,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43410</v>
+        <v>43411</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -16087,11 +17300,11 @@
       </c>
       <c r="M11" s="8">
         <f t="shared" ref="M11:M16" ca="1" si="1">TODAY()</f>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ref="N11:N16" ca="1" si="2">M11+O11</f>
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="O11" s="10">
         <v>91</v>
@@ -16174,11 +17387,11 @@
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="O12" s="10">
         <v>91</v>
@@ -16261,11 +17474,11 @@
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="O13" s="10">
         <v>91</v>
@@ -16348,11 +17561,11 @@
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43413</v>
+        <v>43414</v>
       </c>
       <c r="O14" s="10">
         <v>183</v>
@@ -16435,11 +17648,11 @@
       </c>
       <c r="M15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43413</v>
+        <v>43414</v>
       </c>
       <c r="O15" s="10">
         <v>183</v>
@@ -16522,11 +17735,11 @@
       </c>
       <c r="M16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43230</v>
+        <v>43231</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43413</v>
+        <v>43414</v>
       </c>
       <c r="O16" s="10">
         <v>183</v>
@@ -17172,7 +18385,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -17394,7 +18607,7 @@
       <c r="A36" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>